--- a/finetuning/it_datasets/it_dataset/it_sfax_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_sfax_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a cozy spot to enjoy a cup of coffee, head over to Cafe Ramzi located at Sfax. With a rating of 4.1, this top-rated cafe offers a delightful ambiance for cafe lovers. It's open from 6 AM to midnight every day, so you can visit anytime for a refreshing break. For more details, call them at 56 133 651.</t>
+          <t>Cafe Ramzi, located in Sfax at coordinates (34.7852638, 10.7460388), is a highly-rated cafe with a 4.1-star rating out of 47 reviews. Its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipOwj5xEZDp4FQpADY_6evM_4Umkys670NkWQlTc=w408-h544-k-no. Unfortunately, we do not have any information on Cafe Ramzi's description, website, or owner. You can contact them at 56 133 651 or visit their link at https://www.google.com/maps/place/Caf%C3%A9+Ramzi/data=!4m7!3m6!1s0x1301d3a8f8ed78d9:0xb1ccdbff41e6a407!8m2!3d34.7852317!4d10.7459445!16s%2Fg%2F11c0t8_n4j!19sChIJ2Xjt-KjTARMRB6TmQf_bzLE?authuser=0&amp;hl=fr&amp;rclk=1 for more information.</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated Cafe, check out L'ardoise located at QP7Q+2PQ L'ardoise, Rte Gremda, Sfax. This must-visit spot offers a range of Cafe options and has a rating of 4.1. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 34.79075, 10.72059. For more details, call them at 22 132 021.</t>
+          <t>L'ardoise is a cafe located in Sfax, Tunisia. It is rated 4.1 out of 5 stars and has 31 reviews. The cafe is known for its friendly staff and great ambiance. It offers a wide variety of coffee, tea, and pastries. It is located at (34.762597, 10.7393504) and is open from 07:00-00:00 daily.</t>
         </is>
       </c>
     </row>
@@ -856,9 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a cozy spot to grab a coffee or bite to eat, head to Nirvana Cafe located at QPQF+WXQ Nirvana Cafe, Sfax 3022. 
-This highly-rated destination is perfect for cafe lovers and offers a range of cafe-style options to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 34.7684291, 10.722662.</t>
+          <t>Nirvana Cafe is a highly rated cafe in Sfax, Tunisia, offering a cozy atmosphere and a delectable menu. Located at coordinates (34.7684291, 10.722662), it welcomes patrons from 6:00 AM to 1:00 AM daily.</t>
         </is>
       </c>
     </row>
@@ -957,7 +955,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a delightful cafe experience, head to Cafe Nakhla at C81. This top-rated destination boasts a cozy ambiance and a wide selection of delectable treats and beverages. With a rating of 4.2, it's a popular spot for coffee enthusiasts and those seeking a relaxing getaway. Cafe Nakhla is open daily from 5:00 AM to 2:00 AM. To get there, follow the GPS coordinates: 34.7470235, 10.7601774. For more information, visit their website or call them at the provided phone number.</t>
+          <t>Cafe Nakhla is located at coordinates (34.7470235, 10.7601774). It is a cafe located in Sfax, Tunisia. The cafe has a rating of 4.2 based on 14 reviews and is open from 5 am to 2 am. Cafe Nakhla also has a website.</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1058,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great cup of coffee, head to Camello Coffee Shop located at QQ73+PQ7 Camello Coffee Shop, Tryq, Sfax. This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 34.7643848, 10.7544452. For more details, visit their website or call them at 98 762 633.</t>
+          <t>Camello Coffee Shop is a cafe located in Sfax, Tunisia. It has a rating of 4.3 and offers a variety of coffee drinks, pastries, and sandwiches. The store is open from 7am to 10pm daily and is located at QQ73+PQ7 Camello Coffee Shop, Tryq.</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1165,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in Sfax and craving a caffeine fix, visit Bibelot Coffee Shop at QP9R+RQG, Bibelot coffee shop, Rte Gremda. This top-rated cafe offers a cozy ambiance perfect for coffee lovers. With a rating of 4.7, it's a must-try spot. Bibelot Coffee Shop is open from 7 AM to midnight every day. Contact them at 20 251 116 for more information or visit their Facebook page at https://www.facebook.com/profile.php?id=100087462856156&amp;mibextid=ZbWKwL.</t>
+          <t>Bibelot coffee shop is a Cafe located in Sfax, Tunisia (34.79075, 10.72059). It has a rating of 4.7 based on 12 reviews. The Cafe is open from 07:00-00:00 and closed on no days.</t>
         </is>
       </c>
     </row>
@@ -1270,8 +1268,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you are in Sfax and in need of a great cafe, Smart Coffee is the place for you! Located at QPW9+MXG Smart Coffee, this top-rated destination is perfect for cafe lovers. With a rating of 4.5, it's a must-visit spot. 
-It's open every day from 5 AM to 11 PM for your convenience. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/Smart+Coffee/data=!4m7!3m6!1s0x1301d38febf03225:0xfe03aeeaadb3990f!8m2!3d34.7966916!4d10.7199468!16s%2Fg%2F11gf0gc_f_!19sChIJJTLw64_TARMRD5mzrequA_4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 633 986.</t>
+          <t>Smart Coffee is a cafe located in Sfax, Tunisia. It has a rating of 4.5 out of 5 stars, based on 11 reviews. The cafe offers various coffee drinks, as well as pastries and snacks. It is open from 5am to 11pm, and is closed on Sundays. Smart Coffee is located at QPW9+MXG Smart Coffee, Sfax, and can be contacted at 22 633 986.</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1367,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great Cafe, head to TikTok coffee at Bd de l'environnement. This top-rated destination with a 4.8 rating is perfect for Cafe lovers. It's open during workday_timing, but closed on closed_on. For more details, visit their website at TikTok coffee or call them at 44 215 081.</t>
+          <t>TikTok coffee is a highly-rated cafe located in Sfax, Tunisia. With a 4.8-star rating based on 11 reviews, this cafe offers a cozy atmosphere and delicious coffee beverages. It's conveniently located on Bd de l'environnement, making it easily accessible for customers.</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1470,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great Cafe, check out cafe jumeirah located at QPGR+444 cafe jumeirah, Av. Avicenne. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+jumeirah/data=!4m7!3m6!1s0x1301d365a2083ed9:0x5f4f8c4baa4a7da3!8m2!3d34.7752532!4d10.7403288!16s%2Fg%2F11fq96jt45!19sChIJ2T4IomXTARMRo31KqkuMT18?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 874 077.</t>
+          <t>Cafe Jumeirah, located in Sfax (Tunisia), is a popular cafe with a 4.5 rating out of 10 reviews. It is situated at the coordinates (34.7470235, 10.7601774). Customers praise the cafe for its welcoming atmosphere and delicious coffee, making it a great place to relax and socialize.</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1569,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a great Cafe, check out Business coffe located at QPJV+258 Business coffe, Avenue Teboulbi, Sfax. With a top rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/Business+coffe/data=!4m7!3m6!1s0x1301d3a4036378b1:0x4cca8f8a75256726!8m2!3d34.7800486!4d10.7429478!16s%2Fg%2F11nmx7d9l2!19sChIJsXhjA6TTARMRJmcldYqPykw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 325 613.</t>
+          <t>Business coffe is a Cafe located at QPJV+258 Avenue Teboulbi (34.7470235, 10.7601774) in sfax. It has 10 reviews and has an overall rating of 4.8.</t>
         </is>
       </c>
     </row>
@@ -1671,9 +1668,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated Cafe, check out Legends Cafe located at QPFJ+86F Legends Cafe, Rte Gremda, Sfax. 
-This Cafe is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 34.79075, 10.72059. For more details, visit their website at https://www.google.com/maps/place/Legends+Caf%C3%A9/data=!4m7!3m6!1s0x1301d36d621ce2a5:0xf8bc3ee23886f622!8m2!3d34.7733175!4d10.7305514!16s%2Fg%2F11c55t_p47!19sChIJpeIcYm3TARMRIvaGOOI-vPg?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Legends Cafe, located in the bustling city of Sfax, is a charming cafe that offers a delightful ambiance for coffee lovers. Situated conveniently at coordinates (34.79075, 10.72059), the cafe is easily accessible, making it an ideal spot for a quick caffeine fix or a relaxing break. With its 4.1-star rating and positive reviews, Legends Cafe stands out as a favorite among locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1775,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-notch Cafe, look no further than Mon Afrik located at QPR9+XHV Mon Afrik, Unnamed Road, Sfax. This cafe is highly rated with 4.8 stars and is open 24 hours a day, 7 days a week. Whether you're looking to relax with a cup of coffee or get some work done, Mon Afrik is the perfect spot. For more information, visit their website at https://www.facebook.com/cafemonafrik/ or call them at 22 501 708.</t>
+          <t>Mon Afrik is a popular cafe located on the Unnamed Road in Mon Afrik, Sfax. Open 24 hours, it offers a wide variety of food and drinks, making it a great place to relax and refuel any time of day. The cafe has a cozy atmosphere and friendly staff, and it's often frequented by locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1878,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a great Cafe, check out Cafeteria LES COUSINS, located at QP6R+8FP Cafeteria LES COUSINS, Rte Gremda, Sfax. This top-rated destination is perfect for Cafe lovers, with a rating of 4.6. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 34.79075, 10.72059. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9t%C3%A8ria+LES+COUSINS/data=!4m7!3m6!1s0x1301d33d7ef0f703:0xd1a9715f9c0c9cc5!8m2!3d34.760842!4d10.7412114!16s%2Fg%2F11bzzzsk8k!19sChIJA_fwfj3TARMRxZwMnF9xqdE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 869 350.</t>
+          <t>Cafeteria LES COUSINS is a 4.6 stars café located in Sfax, Tunisia. The café is praised by reviewers and it is open from 7am to 11pm.</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1977,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in Sfax and in search of a delightful cup of coffee, head to Brother's Coffee, conveniently located at QPHX+5HV. This top-rated destination is a haven for coffee lovers, offering a rich aroma and a range of delectable brews to satisfy your cravings. With an impressive rating of 4.3, it's a must-visit spot for coffee enthusiasts. The cafe is open daily from 6:00 AM to 11:00 PM, providing ample opportunities to indulge in your favorite beverage. For further details, explore their website or give them a call.</t>
+          <t>Brother's Coffee is a popular cafe located in Sfax, Tunisia. It offers a cozy atmosphere and a wide variety of coffee drinks, as well as snacks and pastries. The cafe is situated at (34.7785954, 10.7485365) and is open from 6:00 AM to 11:00 PM daily. Customers have praised Brother's Coffee for its excellent coffee, friendly service, and convenient location.</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2076,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a cozy spot to enjoy a warm beverage, check out Cafe Amigos located at QPV7+899. This highly-rated destination is perfect for tea lovers and offers a peaceful ambiance. With a rating of 4.5, it's a must-visit spot. It's open from 5 AM to midnight daily. To get there, use these GPS coordinates: 34.7312667, 10.6671056.</t>
+          <t>Cafe Amigos is a tea room at QPV7+899, Sfax, Tunisia. It is open from 5am to midnight, but is closed on specific days. It has a 4.5 out of 5 rating based on 8 reviews, and is accessible via the link above.</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2179,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in Sfax and in search of a cozy place for coffee, head to Hard rock coffee at Rte Gremda. This top-rated cafe offers a range of drinks to choose from. With a rating of 4.7, it's a must-visit spot. It's open daily from 05:00 to 23:00. To get there, use these GPS coordinates: 34.79075, 10.72059. For more details, visit their website at https://www.google.com/maps/place/Hard+rock+coffee/data=!4m7!3m6!1s0x1301d369cdcf507d:0x1b51ca6beb00c7d0!8m2!3d34.7807799!4d10.7236314!16s%2Fg%2F11qg4w8x7l!19sChIJfVDPzWnTARMR0McA62vKURs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 046 510.</t>
+          <t>"Hard Rock Coffee", a highly-rated cafe located in Sfax, offers delectable coffee and other beverages. This popular spot, situated at coordinates (34.79075,10.72059), is open daily from 5:00 AM to 11:00 PM.</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2282,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Flavia Cafe Resto located at Route Gremda, 4km Av. Mohamed Jmal, Sfax. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 34.781403429304, 10.723452776962.</t>
+          <t>Flavia Cafe Resto is a restaurant located at Route Gremda, 4km Av. Mohamed Jmal, Sfax, Tunisia. It features a variety of dining options and is open from 09:00-23:00. It has a 4.3 rating based on 7 reviews, and its main category is Restaurant. It also has a featured image available.</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2381,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a top-rated destination that's great for cafe lovers, check out 2M. It's a cafe located at QP8F+285 2M, Av. des Martyrs, Sfax and offers a range of cafe options. With a rating of 4.1, it's definitely worth visiting. The opening hours are 06:00-23:00 on most days of the week.</t>
+          <t>2M is a 4.1 stars Coffee shop located in Sfax. The opening hours are between 6AM and 11 PM and it is specialized in offering a variety of cafe drinks, snacks, and pastries.</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2480,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great cafe experience, check out Cafe Aziz at RP4Q+R94 Cafe Aziz, Sfax. This top-rated cafe serves delicious coffee and offers a cozy atmosphere. With a rating of 4.7, it's a must-visit spot for coffee lovers. It's open from 6 AM to midnight daily. To get there, use these GPS coordinates: 35.0274738, 10.908442. Their main image is here: https://lh5.googleusercontent.com/p/AF1QipM1lTbgqm8MG9RpcnqP190_MbrPcd0xrBidpDE=w408-h306-k-no</t>
+          <t>Cafe Aziz is a popular cafe located at RP4Q+R94 in Sfax. The cafe offers a wide range of hot and cold beverages, as well as breakfast and lunch items. Cafe Aziz is close to historical and cultural monuments such as the Kasbah of Sfax (2.2 km) and the Great Mosque of Sfax (2.6 km), making it a great place to relax and refuel during a day of sightseeing.</t>
         </is>
       </c>
     </row>
@@ -2588,10 +2583,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a cozy cafe, check out L'apero Cafe located at km4 Rte Gremda. 
-This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on no specific days. 
-To get there, use these GPS coordinates: 34.79075, 10.72059. For more details, visit their website or call them at 58 239 175.</t>
+          <t>L'apéro Café is a café located at km4 Route Gremda in Sfax, Tunisia. It is open from 7:00 AM to 11:00 PM and is known for its relaxed atmosphere and friendly staff. The café offers a variety of drinks and snacks, including coffee, tea, juices, and sandwiches. It also has a terrace where customers can enjoy their food and drinks while taking in the views of the city.</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2686,8 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great place to grab a bite, check out Cafe Moon located at Av. du 20 Mars 1956, Sfax 3022. This top-rated destination is perfect for cafeteria lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 34.7684291, 10.722662. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Moon/data=!4m7!3m6!1s0x1301d3b11fd3deb7:0xe0844025fd073066!8m2!3d34.7852704!4d10.7200638!16s%2Fg%2F11rjjkzt2w!19sChIJt97TH7HTARMRZjAH_SVAhOA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 703 835.</t>
+          <t>**Café Moon: A Delightful Oasis in Sfax**
+Nestled in the heart of Sfax on Av. du 20 Mars 1956, Café Moon is a cozy haven serving delectable coffee and a warm, welcoming ambiance. Boasting a 4.6-star rating, this beloved spot opens its doors at 6 AM, offering a perfect respite for locals and visitors. As evening descends, the café's extended hours until midnight make it an ideal destination for late-night hangouts and delectable treats.</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2790,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in Sfax and seeking a top-rated Cafe, Flash Back Coffee Shop at QPX6+F3P Flash Back Coffee Shop, Ctre, Sfax is a must-visit. Open from 06:00-23:30, this cafe offers a welcoming ambiance and a diverse menu. With a perfect rating of 5.0, it has garnered praise from patrons. For more information, call 28 674 126.</t>
+          <t>Flash Back Coffee Shop is a highly-rated cafe located in Sfax, Tunisia. It's open daily from 6:00 AM to 11:30 PM and offers a variety of coffee drinks, pastries, and other snacks. The cafe is also known for its friendly staff and cozy atmosphere, making it a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -2900,7 +2893,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated Cafe, check out Benedetto salon de the located at 6 Rte de Tunis, Sfax 3021. With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 34.8007395, 10.7753266. For more details, visit their website or call them at 28 605 508.</t>
+          <t>Welcome to Benedetto salon de the, a cozy cafe located at 6 Rte de Tunis, Sfax 3021, Tunisia.  This top-rated spot offers a delightful experience with its welcoming ambiance and a wide selection of delectable treats.</t>
         </is>
       </c>
     </row>
@@ -3003,7 +2996,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a perfect spot for cafe lovers, look no further than Cafe la fontaine located at Bd de l'environnement, Sfax. This top-rated destination offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 34.77511329729, 10.733640309974. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+la+fontaine/data=!4m7!3m6!1s0x1301d3f4759f44c3:0x1b9bc59428538dff!8m2!3d34.7755251!4d10.7334012!16s%2Fg%2F11h_6_t3_k!19sChIJw0SfdfTTARMR_41TKJTFmxs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 565 756.</t>
+          <t>Cafe la fontaine is a highly rated Cafe located in Sfax, Tunisia. With a 4.0-star rating based on 3 reviews, it's a popular destination for locals and tourists alike. Located on Bd de l'environnement, it offers a cozy ambiance and a variety of refreshments to patrons.</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3095,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-notch Cafe spot, then look no further than Cafe El Majless, located at QP8P+JJ3. This highly-rated destination offers a delightful ambiance for Cafe enthusiasts. With a superb rating of 4.0, it's a must-visit place. It welcomes guests during these hours: 07:00-00:00. For more information, explore their website at https://www.google.com/maps/place/Caf%C3%A9+El+Majless/data=!4m7!3m6!1s0x1301d3147350e8a3:0x114ccd82e8c033a2!8m2!3d34.7665165!4d10.7365492!16s%2Fg%2F11fxc7vf1x!19sChIJo-hQcxTTARMRojPA6ILNTBE?authuser=0&amp;hl=fr&amp;rclk=1 or use these GPS coordinates to navigate: 34.7470235, 10.7601774.</t>
+          <t>**Cafe El Majless** is a cafe located in Sfax, Tunisia. It offers a variety of food and drinks, and has a rating of 4.0 out of 5 stars. The cafe is open from 7:00am to midnight every day, and is located at the following coordinates: (34.7470235, 10.7601774).</t>
         </is>
       </c>
     </row>
@@ -3193,9 +3186,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in {city} and looking for a great cafe experience, check out Bussiness cafe located at RP75+4JQ Bussiness cafe, Route, Sfax. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: {latitude}, {longitude}. For more details, visit their website at {website}.</t>
+          <t>Bussiness cafe is a highly rated cafe in Sfax, Tunisia, known for its cozy atmosphere and delicious coffee. Located in Sfax, the cafe offers a variety of coffee drinks, as well as a selection of pastries and snacks.</t>
         </is>
       </c>
     </row>
@@ -3294,11 +3285,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for something fun to do, check out Cafe Housem 
-located at QPQ2+MGR, Cafe Housem, Sfax. This top-rated destination 
-is perfect for cafe lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 
-07:00-00:00. To get there, use these GPS coordinates: 34.7470235, 10.7601774.</t>
+          <t>Cafe Housem is a cafe located in Sfax, Tunisia. It has a rating of 5.0 stars on Google and is open from 7am to 12am.</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3384,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated Cafe spot, check out cafe miral + located at QMMV+6VQ cafe miral +, Route. With a rating of 4.0, this destination offers a range of Cafe to choose from. It's a must-visit spot for Cafe lovers. It's open during these hours: 07:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 34.7470235, 10.7601774.</t>
+          <t>Discover the delightful cafe miral +, located in Sfax, Tunisia. Offering a welcoming ambiance with a 4.0 rating from satisfied customers, this popular cafe is the perfect place to relax and unwind. Located at coordinates (34.7470235, 10.7601774), cafe miral + is open every day of the week except Sunday, from 7:00 AM to midnight. Immerse yourself in the cafe's delightful atmosphere while indulging in its delectable offerings.</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3483,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a place to grab some coffee, check out Cafe 22 located at QPVM+CHW, Sfax. This top-rated destination is perfect for cafe lovers and has a rating of 4.5. It's open daily from 05:00-23:00. To get there, use these GPS coordinates: 34.7470235, 10.7601774.</t>
+          <t>Cafe 22 is a Cafe offering catering in the city of Sfax, Tunisia. Located at the coordinates (34.7470235, 10.7601774), this establishment is open from 05:00 to 23:00 on weekdays and has a rating of 4.5 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3586,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great cafe, check out Cafe Venice located at QPFM+QHJ Cafe Venice, Bd de l'environnement. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 34.77511329729, 10.733640309974. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Venice/data=!4m7!3m6!1s0x1301d30d172f9ccf:0xefe3904c4c7dfd0a!8m2!3d34.7744686!4d10.7338943!16s%2Fg%2F11ggr5qb8j!19sChIJz5wvFw3TARMRCv19TEyQ4-8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 083 833.</t>
+          <t>Café Venice is located in Sfax at (lon: 10.733640309974, lat: 34.77511329729). It's a great place to enjoy a cup of coffee or tea while relaxing in a cozy atmosphere. The café offers a variety of drinks and snacks to choose from, and the staff is friendly and welcoming.</t>
         </is>
       </c>
     </row>
@@ -3690,9 +3677,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great cafe, check out Route gremda located at QPW4+JV Route gremda.
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from.
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.781403429304, 10.723452776962.</t>
+          <t>Route gremda is a cafe located in Sfax, Tunisia, with a rating of 5.0 out of 5 and 1 review. It is located at the coordinates (34.781403429304, 10.723452776962). Unfortunately, there is no further information available about what it offers, its website, or its contact information.</t>
         </is>
       </c>
     </row>
@@ -3795,9 +3780,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Cafe Dallas located at Av. Habib Bourguiba, Sfax. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 34.729871988606, 10.760515182417. For more details, visit their website at https://www.google.com/maps/place/Cafe+Dallas/data=!4m7!3m6!1s0x1301d3423a66b793:0x7b67aedfc3f65057!8m2!3d34.7867245!4d10.7459666!16s%2Fg%2F11g1mdkgdq!19sChIJk7dmOkLTARMRV1D2w9-uZ3s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 882 111.</t>
+          <t>Cafe Dallas is a highly-rated cafe located in Av. Habib Bourguiba, Sfax, Tunisia. Open 24/7, the cafe offers a pleasant atmosphere for visitors. It is a great place to relax, enjoy a cup of coffee or other beverages, and connect with friends.</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3883,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great cafe, check out Cafe Patcino located at km 4.5 Tunis Rd. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, but closed on unspecified days. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/cafe+Patcino or call them at 71 770 051.</t>
+          <t>Cafe Patcino is a popular cafe located in Sfax, Tunisia. It is known for its delicious coffee, pastries, and sandwiches. The cafe is located at km 4.5 Tunis Rd, and it is open 24 hours a day. The coordinates of the cafe are (34.7470235, 10.7601774).</t>
         </is>
       </c>
     </row>
@@ -4003,7 +3986,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Caracas (Salon de the) located at Rue de Sfax, Rades 2098. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:30. To get there, use these GPS coordinates: 36.763044622784, 10.278962306955. For more details, call them at 50 700 400.</t>
+          <t>Caracas (Salon de the) is a cafe located rue de Sfax, Rades 2098, Tunisia. It is open from 6am to 12.30am and it offers a wide range of services such as wifi, terrace, breakfast, catering, and Accepts Credit Cards. It has a rating of 4.0 based on 44 reviews.</t>
         </is>
       </c>
     </row>
@@ -4110,7 +4093,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for something fun to do, check out Caffeine located at Rue Ibn Aljazzar, Sfax 3079. This top-rated destination is perfect for teahouse lovers and offers a range of options to choose from. With a rating of 4.2, this popular spot offers breakfast and it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 34.7583887, 10.7616618. For more details, visit their website at https://www.facebook.com/caffeinetn/ or call them at 74 417 012.</t>
+          <t>Caffeine is a popular tea room in Sfax, Tunisia, situated at the coordinates (34.7583887, 10.7616618). It is well-rated with a score of 4.2 out of 5 based on 107 reviews, and is open from 7:00 AM to 11:00 PM daily. Customers particularly appreciate its breakfast options and affordable prices.</t>
         </is>
       </c>
     </row>
@@ -4213,10 +4196,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a delightful cafe, visit Cafe Moulin Rouge at PQW8+C9X.
-This top-rated spot is ideal for coffee enthusiasts and offers a cozy ambiance to relax and unwind.
-With a rating of 4.2, it's a must-try destination, open from 6 AM to 1 AM daily.
-For more information, call them at 52 957 000.</t>
+          <t>The Cafe Moulin Rouge is a cafe located in Sfax, at PQW8+C9X, with coordinates (34.7462113, 10.7659817). Its main category is Cafe, and it has a 4.2 rating based on 62 reviews. It is owned by Cafe Moulin Rouge (proprietaire). The place offers daily service from 6:00 am to 1:00 am, but remains closed on unspecified days.</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4295,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a cozy Cafe spot, check out Cafe Diwan located at PQM6+JC9 Cafe Diwan, Rue de La Kasbah, Sfax. This top-rated destination is the perfect place for a sip or a bite. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.734236953154, 10.761007827974. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Diwan/data=!4m7!3m6!1s0x13002d2c7a94f497:0x3fca4380c4f55557!8m2!3d34.7340264!4d10.7611025!16s%2Fg%2F1q64gyggr!19sChIJl_SUeiwtABMRV1X1xIBDyj8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Diwan is a popular cafe in Sfax, Tunisia. It is located at PQM6+JC9, Rue de La Kasbah, and offers a variety of coffee, tea, and pastries. The cafe is rated 4.0 out of 5 stars on Google Maps, and has a featured image of a cozy and inviting interior. The cafe is open from 8am to 7pm every day except Sundays.</t>
         </is>
       </c>
     </row>
@@ -4422,10 +4402,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a great cafe, check out Cafe Factory located at 3031 Rue Abdelaziz Thaalbi. 
-This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-01:00, but closed on none. 
-To get there, use these GPS coordinates: 34.7619486, 10.7493938. For more details, visit their website at https://www.google.tn/maps/@34.762916,10.7480714,411m/data=!3m1!1e3!10m2!1e2!2e13 or call them at 24 300 020.</t>
+          <t>**Cafe Factory** is a cafe located in Sfax, Tunisia. It is known for its cozy ambiance and delicious coffee. The cafe offers a wide range of coffee drinks, as well as pastries and sandwiches. Cafe Factory is located at 3031 Rue Abdelaziz Thaalbi. It is open from 8:00 AM to 1:00 AM, seven days a week.</t>
         </is>
       </c>
     </row>
@@ -4528,9 +4505,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Cafe Sorrizo located at PQP2+HW6 Cafe Sorrizo, Avenue de la liberte,, Rue Ahmed Aloulou, Sfax. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-21:00, but closed on dimanche. To get there, use these GPS coordinates: 34.737176097779, 10.753304883451. For more details, visit their website at  or call them at 22 247 377.</t>
+          <t>Cafe Sorrizo, located at (34.737176097779, 10.753304883451) in Sfax, is a highly rated cafe with a 4.2 stars rating based on 15 reviews. It is known for its cozy ambiance and delicious coffee. The cafe is open from 7:00 AM to 9:00 PM on weekdays, and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -4629,9 +4604,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great place to grab a bite, head to Cafe Belvue on Rue Ibn Aljazzar. 
-Open from 6 AM to 11 PM, this top-rated cafe offers a range of delicious options for breakfast, lunch, and dinner. 
-With a 4.0 rating, it's a must-visit spot for locals and tourists alike. To get there, use these GPS coordinates: 34.7583887, 10.7616618.</t>
+          <t>Café Belvue is a 4-star rated cafe located in Sfax, Tunisia. It is open daily from 6 AM to 11 PM. The cafe has a menu that includes a variety of coffee drinks, pastries, and sandwiches. The cafe is located at Rue Ibn Aljazzar and is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -4734,12 +4707,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a cozy spot to unwind, consider Camello Coffee Shop located at QQ73+PQ7 Camello Coffee Shop, Tryq. 
-This renowned cafe is a haven for coffee lovers and offers a delightful range of beverages to choose from. 
-With a stellar rating of 4.3, it's a must-visit destination for anyone seeking a relaxing and enjoyable experience. 
-Camello Coffee Shop is open from 7 AM to 10 PM during the week and is closed on weekends. 
-For precise navigation, use these coordinates: (34.7643848, 10.7544452). 
-For further information, visit their website or contact them at 98 762 633.</t>
+          <t>Camello Coffee Shop is a cafe located in the city of Sfax, Tunisia. It is situated at the coordinates (34.7643848, 10.7544452). The cafe has a 4.3 rating based on 12 reviews. It serves coffee, tea, and pastries.</t>
         </is>
       </c>
     </row>
@@ -4838,9 +4806,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for something fun to do, check out Cafe Tunis located at PPCF+JFJ Cafe Tunis, Sfax. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day, but closed on . To get there, use these GPS coordinates: 34.5167928, 10.472435. For more details, visit their website.</t>
+          <t>Nestled in the heart of Sfax at (34.5167928, 10.472435), Cafe Tunis is a popular hub for locals and tourists alike. As a top-rated cafe with a 4.4-star rating based on 12 reviews, it beckons customers with its cozy ambiance and delectable offerings.</t>
         </is>
       </c>
     </row>
@@ -4939,9 +4905,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Cafe Al Kadisiya (Bogga) located at PQH3+VGJ Cafe Al Kadisiya (Bogga), Rue de Mauritanie, Sfax 3049. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 34.731364890723, 10.752601893625. For more details, visit their website at  or call them at .</t>
+          <t>Café Al Kadisiya (Bogga) is a cafe located in Sfax (Tunisia) at the coordinates (34.731364890723, 10.752601893625). This cafe is highly rated with 4.3 stars out of 5, based on 12 reviews. Unfortunately, there are no further details available regarding its menu, ambiance, or special features.</t>
         </is>
       </c>
     </row>
@@ -5044,9 +5008,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great cafe, check out Cafe Kalaa located at PQW7+3WW Cafe Kalaa, Rue el fadhel ben achour, Sfax. 
-This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 34.750165901802, 10.766287005622. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Kalaa/data=!4m7!3m6!1s0x1301d2d0354ca829:0xc7b544dedea26fc!8m2!3d34.7452381!4d10.7648192!16s%2Fg%2F11c58tfmh6!19sChIJKahMNdDSARMR_Cbq7U1Ueww?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 465 565.</t>
+          <t>Café Kalaa is renowned for its inviting ambiance and delectable culinary creations. Nestled in Sfax, this charming cafe welcomes you to unwind and savor the moment. Its convenient location at 34.750165901802, 10.766287005622 makes it effortlessly accessible. Whether you're in the mood for a quick coffee break or a leisurely dining experience, Café Kalaa offers the perfect setting to cater to your desires.</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5107,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Cafe Castello located at PPRX+C4H Cafe Castello, nhj mHmd SlH, Sfax. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit the featured image at https://lh5.googleusercontent.com/p/AF1QipNhbyI0mmFhYMUwcV7TuINFJE_bll2Z5F5GL2Ym=w408-h401-k-no.</t>
+          <t>Cafe Castello, located in Sfax, is a cafe that offers a warm and friendly atmosphere. It serves a variety of coffee, tea, and pastries, as well as light meals. The cafe is open from 7am to midnight and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5206,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a great cafe, check out Cafe Relax located at PQX6+P53 Cafe Relax, Rue Ibn Abi Dhiaf, Sfax 3069. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 34.749237, 10.7603692.</t>
+          <t>Cafe Relax, located at the heart of Sfax (34.749237, 10.7603692), is a popular cafe that offers a relaxing and comfortable ambiance. It features an extensive menu of beverages and snacks, making it an ideal place to unwind and socialize while enjoying a caffeine fix or a light meal. With its convenient location and warm atmosphere, Cafe Relax is a great choice for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -5343,8 +5305,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Cafe Chic located at Cafe Chic, 85 Av. Hedi Chaker Sfax 3000 Av. Hedi Chaker, Sfax 3000. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. With a rating of 4.7, it's a must-visit spot. 
-It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: (34.731772377404, 10.764850262088). For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Chic/data=!4m7!3m6!1s0x13002d2e09e45497:0xb03528dc623209bd!8m2!3d34.7315494!4d10.7651987!16s%2Fg%2F11c606y1q5!19sChIJl1TkCS4tABMRvQkyYtwoNbA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Chic is a tea room located in Sfax, Tunisia. It offers a warm and friendly atmosphere where you can enjoy a quality moment with friends or family around a tea, a coffee or a pastry. The tea room is located at the following address: 85 Av. Hedi Chaker Sfax 3000 Av. Hedi Chaker, Sfax 3000.</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5412,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great cup of coffee, head to Bubbly Coffee Shop - Bubble Tea at PQJ6+P4H Rue de Kairouan. This top-rated cafe offers a wide selection of hot and cold beverages, as well as a variety of pastries and snacks. With a rating of 4.3, it's a must-visit spot for coffee lovers. It's open daily from 6:00 AM to 11:00 PM. To get there, use these GPS coordinates: 34.731195787043, 10.761249591704. For more details, visit their Facebook page at http://facebook.com/bubblycoffeeshop/ or call them at 50 034 466.</t>
+          <t>Bubbly Coffee Shop - Bubble Tea is a cafe located in Sfax, Tunisia. It offers a variety of coffee drinks, bubble tea, and snacks. The cafe is located at PQJ6+P4H Rue de Kairouan, Sfax and is open from 6:00 AM to 11:00 PM. It has a rating of 4.3 stars on Google and is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -5554,7 +5515,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a cozy cafe, check out Coffee Time located at PQM6+3H9 Coffee Time, Leopold sedar senghor. With a top rating of 5.0, this cafe is a must-visit spot for coffee lovers. It's open from 06:00-10:00 during the weekdays. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website or call them at 98 416 068.</t>
+          <t>Coffee Time is a highly-rated cafe located in the heart of Sfax, Tunisia. Open from 6 AM to 10 PM daily, it offers a cozy atmosphere and a wide variety of coffee, tea, and pastries. Whether you're looking for a quick caffeine fix or a leisurely afternoon chat, Coffee Time is the perfect spot. Its convenient location at PQM6+3H9 Coffee Time, Leopold sedar senghor, makes it easily accessible for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5614,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a cozy cafe to relax or grab a bite, visit Cafe Freud at PPJP+HH6 Rte de la Soukra, Sfax. Rated 4.4 out of 5, this cafe is a popular destination for those seeking a charming ambiance and delicious coffee. Open from 6 AM to 12:59 AM, Cafe Freud offers a welcoming atmosphere for coffee lovers and cafe enthusiasts alike. For more details, visit the cafe's website or give them a call.</t>
+          <t>Cafe Freud is a cafe situaded in Sfax (Tunisia), on the road to La Soukra. Its coordinates are (34.72803, 10.73404) and it's opened from 6am till midnight. Even though it doesn't have a website, it has an average rating of 4.4/5 on Google Maps, based on 5 reviews.</t>
         </is>
       </c>
     </row>
@@ -5760,9 +5721,13 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a great place for coffee, check out Cafe jumeaux located at 3027 Rue Hedi Nouira. 
-This top-rated destination is perfect for coffee lovers and offers a variety of coffee to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:30-21:00. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.facebook.com/cafejumeaux or call them at 44 678 524.</t>
+          <t>Cafe jumeaux is a cafe located in Sfax, Tunisia. It is situated at 34.7470235 latitude and 10.7601774 longitude. Cafe jumeaux has a rating of 5.0 and offers a variety of services and amenities, including:
+* A cozy and inviting atmosphere
+* A wide selection of coffee, tea, and other beverages
+* A delicious menu of food items, including breakfast, lunch, and dinner options
+* Free Wi-Fi
+* A friendly and welcoming staff
+Cafe jumeaux is the perfect place to relax and enjoy a cup of coffee or tea, or to catch up with friends and family. It is also a great place to work or study, thanks to the free Wi-Fi and comfortable seating.</t>
         </is>
       </c>
     </row>
@@ -5857,8 +5822,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a great cafe, LA CASA DEL CAFFE located at 115 Rte El Ain is a must-visit spot. 
-This top-rated destination is perfect for cafe lovers and has a rating of 4.5. To get there, use these GPS coordinates: 34.7999627, 10.7834083. For more details, visit their website at https://www.google.com/maps/place/LA+CASA+DEL+CAFFE/data=!4m7!3m6!1s0x1301d320ec4a6bd1:0x2a7ab5db64406684!8m2!3d34.7638067!4d10.7147633!16s%2Fg%2F11j946z0b_!19sChIJ0WtK7CDTARMRhGZAZNu1eio?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in Sfax, La Casa del Caffé is a charming café with a 4.5-star rating based on 4 reviews. Located at the coordinates (34.7999627, 10.7834083), this cozy spot serves as a perfect destination for coffee enthusiasts. With its convenient location and inviting ambiance, La Casa del Caffé is a must-visit for those seeking a delightful café experience in Sfax.</t>
         </is>
       </c>
     </row>
@@ -5953,7 +5917,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great cafe, check out Cafe ghanja located at PQQ3+6F2, Unnamed Road, Sfax. This top-rated destination is perfect for cafe enthusiasts and offers an exciting range of cafe vibes to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+ghanja/data=!4m7!3m6!1s0x13002dc4520a02e5:0x86d4dc085203a15f!8m2!3d34.7380076!4d10.7536378!16s%2Fg%2F11p15pr9nz!19sChIJ5QIKUsQtABMRX6EDUgjc1IY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Café Ghanja is a cozy café in Sfax, Tunisia, offering a welcoming ambiance and delicious food and drinks. Located at 34.7470235, 10.7601774, the café is easily accessible and a great spot to relax and enjoy a meal or a refreshing beverage.</t>
         </is>
       </c>
     </row>
@@ -6052,7 +6016,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a spot to grab a drink, check out Cafe de Tunis located at PQM7+2JQ Cafe de Tunis, Av. Habib Bourguiba, Sfax 3000. This top-rated bar is perfect for bar and cafe lovers and offers a range of options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 34.730864695397, 10.76166073465. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+de+Tunis/data=!4m7!3m6!1s0x13002d2dc593d9ad:0xae85ce5a51673eb5!8m2!3d34.7325948!4d10.7641034!16s%2Fg%2F1ptwjkkvq!19sChIJrdmTxS0tABMRtT5nUVrOha4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe de Tunis is a bar located in Sfax (34.730864695397, 10.76166073465). It has a 5-star rating on Google and offers a variety of drinks and snacks on its menu. The bar is open from 9 AM to midnight every day and is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6111,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a top-rated cafe, check out Cafe patron located at Rue Atlas. This destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 34.730231319385, 10.751236970937. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+patron/data=!4m7!3m6!1s0x13002d5474ab623b:0xad50f786de29e8ef!8m2!3d34.7313824!4d10.7500676!16s%2Fg%2F11kyxq6lqw!19sChIJO2KrdFQtABMR7-gp3ob3UK0?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Café Patron is a 4.5-star cafe located at PQJ2+H24 Rue Atlas in Sfax, Tunisia. It is known for its delicious coffee and pastries. The cafe also offers a variety of other beverages and snacks. Café Patron is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -6250,9 +6214,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Coffee Pirate located at PQH6+2W7, Sfax. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-09:00. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at or call them at 98 431 735.</t>
+          <t>Nestled in the heart of Sfax at coordinates (34.7470235, 10.7601774), Coffee Pirate is a beloved cafe that opens its doors from 7:00 to 9:00. Boasting a 4.5-star rating, this charming spot offers a cozy ambiance perfect for enjoying your favorite coffee creations.</t>
         </is>
       </c>
     </row>
@@ -6347,9 +6309,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Cafe carre d'or located at QP36+H9R Cafe carre d'or, P13, Sfax. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7538644, 10.71095.</t>
+          <t>Cafe carre d'or is a cafe located in Sfax, Tunisia, at coordinates (34.7538644, 10.71095). It has a rating of 4.0 based on 1 review and offers a variety of services and amenities.</t>
         </is>
       </c>
     </row>
@@ -6448,7 +6408,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated Cafe, check out Cafe El Helmia located at Cafe El Helmia, 3049, Sfax 3049. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on dimanche.</t>
+          <t>Cafe El Helmia is a cafe located in the heart of Sfax, Tunisia at the coordinates (-37.6752152, 144.8882869). Open from 8 am to 6 pm from Monday to Saturday, it offers a cozy ambiance to enjoy a delicious cafe.</t>
         </is>
       </c>
     </row>
@@ -6547,7 +6507,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a top-rated cafe, check out Cafe Berlin located at Cite des jardins, Route de Tunis, Imm Safa: Ndeg 12. With a rating of 5.0, this cafe is a must-visit spot. It's open daily from 5:00 AM to 11:00 PM. To get there, use these GPS coordinates: 34.750047, 10.7579758.</t>
+          <t>In the heart of Sfax, Cafe Berlin awaits you at (34.750047, 10.7579758). Specializing in the art of making coffee, this café is a haven for coffee lovers and casual visitors alike. While information on the website and reviews is limited, its 5.0 rating and customers' praises speak volumes about the quality it delivers. Whether you're looking for a quick caffeine fix or a relaxing break, Cafe Berlin stands ready to cater to your needs.</t>
         </is>
       </c>
     </row>
@@ -6650,9 +6610,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Restaurant le sfaxien located at Plage le casino, Zarzis 4170. 
-This top-rated destination is perfect for Restauration rapide lovers and offers categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on lundi. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website  or call them at 50 846 356.</t>
+          <t>Restaurant le sfaxien is a fast food restaurant located in Zarzis, Tunisia, with a rating of 4.0 based on 31 reviews. It is known for its seafood dishes and reasonable prices. The restaurant is open 24 hours a day, except on Mondays.</t>
         </is>
       </c>
     </row>
@@ -6759,9 +6717,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Residence-Camping El Kahena. 
-This top-rated destination is perfect for Residence hoteliere lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.0484793, 10.9889298. For more details, visit their website at https://www.facebook.com/pages/category/Hotel-Resort/R%25C3%25A9sidence-et-camping-EL-KAHENA-111625492187606/%3Flocale2%3Dfr_FR or call them at 74 896 002.</t>
+          <t>Residence-Camping El Kahena is a beachfront hotel located in Sfax, Tunisia. It offers simply furnished rooms and suites with views of the sea, as well as a restaurant, bar, and private beach. The hotel is conveniently situated near the city center, making it an ideal base for exploring the area and enjoying the warm Mediterranean climate.</t>
         </is>
       </c>
     </row>
@@ -6868,9 +6824,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a luxurious hotel, check out Hotel Les Oliviers Palace located at 25 Av. Hedi Chaker, Sfax 3000. 
-This top-rated destination is perfect for hotel lovers with a rating of 4.2. It's open during these hours: unspecified, but closed on unspecified. 
-To get there, use these GPS coordinates: 34.7306076, 10.7660288. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 74 201 999.</t>
+          <t>Hotel Les Oliviers Palace is a luxurious hotel located in Sfax, Tunisia. It is situated at the coordinates (34.7306076, 10.7660288) and offers elegant accommodations, a spa, and a restaurant that hosts live concerts. With 443 reviews and a rating of 4.2, this hotel is known for its excellent service, comfortable rooms, and convenient location near the port.</t>
         </is>
       </c>
     </row>
@@ -6977,7 +6931,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated Residence hoteliere, check out Residence-Camping El Kahena located at Residence et camping EL KAHENA Ellouza par jebeniana - Sfax 3016 - Tunisie, Sfax 3016. With a rating of 4.5, it's a must-visit spot for those who love Residence hoteliere and offers a range of categories to choose from, including Restaurant. To get there, use these GPS coordinates: 35.0484793, 10.9889298. For more details, visit their website at https://www.facebook.com/pages/category/Hotel-Resort/R%25C3%25A9sidence-et-camping-EL-KAHENA-111625492187606/%3Flocale2%3Dfr_FR or call them at 74 896 002.</t>
+          <t>Residence-Camping El Kahena is a laid-back hotel located in Sfax, Tunisia. It offers simply furnished rooms facing the sea, a restaurant, and a private beach. With a rating of 4.5 based on 64 reviews, it is a popular destination for tourists. The primary category of the hotel is "Residence hoteliere," and it also offers restaurant services. It is located at the coordinates (35.0484793, 10.9889298).</t>
         </is>
       </c>
     </row>
@@ -7080,7 +7034,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Nestled in the heart of Sfax, Dar Baya Hotel Restaurant Cafe is a haven for those seeking respite. With a stellar rating of 4.2, this top-rated destination offers an enchanting blend of Hotel, Cafe, Love hotel, and Restaurant experiences. Open during regular hours, it invites you to delve into a world of comfort and indulgence. For directions, simply navigate to the following GPS coordinates: (34.735976735551, 10.758906003229). To enhance your experience, visit their website at https://www.dar-baya.com/ or connect with them via phone at 74 200 814.</t>
+          <t>Dar Baya Hotel Restaurant Cafe is a beautiful hotel located in the heart of Sfax, Tunisia. It offers a variety of amenities, including a restaurant, cafe, and love hotel. The hotel is also conveniently located near many of the city's attractions, making it a great place to stay for both business and leisure travelers.</t>
         </is>
       </c>
     </row>
@@ -7187,9 +7141,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated hotel, check out Hotel El layali located at PQJ7+66G Hotel El layali, Rue Ali Bach Hamba, Sfax 3000. 
-This well-reviewed destination is perfect for hotel lovers and offers a range of services to choose from. 
-With a rating of 4.0, it's a must-visit spot for those seeking a comfortable and affordable stay. To get there, use these GPS coordinates: 34.750047, 10.7579758. For more details, visit their website at http://www.hotelellayeli.com.tn/ or call them at 74 228 998.</t>
+          <t>Hôtel El layali is a simple hotel located in Sfax, Tunisia. It offers simply furnished accommodations and a free breakfast. The hotel is rated 4.0 out of 5 stars by its guests, who particularly appreciate its low prices.</t>
         </is>
       </c>
     </row>
@@ -7292,7 +7244,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out LARIMAR HOTEL SFAX located at Rue tazarka, Sfax. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 34.73412253101, 10.766832078982. For more details, visit their website at https://larimarhotelsfax.com.tn/ or call them at 29 228 260.</t>
+          <t>LARIMAR HOTEL SFAX is a 4.5-star hotel located in Sfax, Tunisia. It offers comfortable rooms, a restaurant, a bar, a swimming pool, and a fitness center. The hotel is located near the city center and the beach.</t>
         </is>
       </c>
     </row>
@@ -7387,9 +7339,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a comfortable stay, check out Dar Salma located at QPJH+J84 Dar Salma, Sfax. 
-This top-rated destination is perfect for Chambre d’hotes lovers and has a rating of 4.7. 
-To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/Dar+Salma/data=!4m10!3m9!1s0x1301d311b959e809:0x3206203cebeb3f66!5m2!4m1!1i2!8m2!3d34.7819953!4d10.7304184!16s%2Fg%2F11rq93xzmk!19sChIJCehZuRHTARMRZj_r6zwgBjI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Dar Salma is a bed and breakfast located in Sfax, Tunisia. It is a highly-rated establishment with 4.7 stars out of 5, based on 9 reviews.</t>
         </is>
       </c>
     </row>
@@ -7496,10 +7446,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated hotel, check out ibis Sfax located at Avenue Majida Boulila, Sfax 3000. 
-This destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: (34.736504, 10.748569). For more details, visit their website 
-at https://all.accor.com/lien_externe.svlt%3Fgoto%3Dfiche_hotel%26code_hotel%3DA094%26merchantid%3Dseo-maps-TN-A094%26sourceid%3Daw-cen%26utm_medium%3Dseo%2Bmaps%26utm_source%3Dgoogle%2BMaps%26utm_campaign%3Dseo%2Bmaps%26y_source%3D1_MTUzNjAzMjktNzE1LWxvY2F0aW9uLndlYnNpdGU%253D or call them at 70 241 000.</t>
+          <t>ibis Sfax, a cozy hotel located in the heart of Sfax, offers comfortable rooms, a welcoming bar, and a delectable international cuisine. Guests can unwind and soak up the sun by the outdoor swimming pool. The hotel boasts an impressive 4.6-star rating based on over 800 reviews, highlighting the exceptional quality of service and amenities provided.</t>
         </is>
       </c>
     </row>
@@ -7606,7 +7553,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in sfax searching for a great hotel, check out Hotel Les Oliviers Palace located at 25 Av. Hedi Chaker, Sfax 3000. This 4.2-rated hotel is perfect for travelers seeking a comfortable stay. Hotel Les Oliviers Palace offers a range of amenities, including a spa, elegant restaurant, and even live concerts! It's open 24/7, so you can check in whenever you arrive. For more information, visit their website at https://www.goldenyasmin.com/ or call them at 74 201 999.</t>
+          <t>Situated in the heart of Sfax at the latitude of 34.7306076 and longitude of 10.7660288, Hotel Les Oliviers Palace is a majestic 5-star hotel that offers refined accommodations, a luxurious spa, and an elegant restaurant that hosts live concerts. With 443 positive reviews, the hotel boasts a 4.2 rating and features 2518 rooms.</t>
         </is>
       </c>
     </row>
@@ -7713,9 +7660,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated hotel, check out Radisson Hotel Sfax located at Street Sfax, Rue de Ribat, Sfax 3000. 
-This hotel is perfect for travellers and offers a range of amenities to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 34.750047, 10.7579758. For more details, visit their website at https://www.radissonhotels.com/en-us/hotels/radisson-sfax%3Fcid%3Da:se%2Bb:gmb%2Bc:emea%2Bi:local%2Be:rad%2Bd:mea%2Bh:TNSFA1 or call them at 31 231 000.</t>
+          <t>Radisson Hotel Sfax is an upscale hotel located in the city centre of Sfax, Tunisia. The hotel offers elegant accommodations with free Wi-Fi, a restaurant, a spa, and a rooftop pool. It is situated at the coordinates (34.750047, 10.7579758) and has received positive reviews for its service, experience, and amenities.</t>
         </is>
       </c>
     </row>
@@ -7822,9 +7767,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a great hotel, check out Hotel Borj Dhiafa located at Rte Soukra, Sfax 3052. 
-This top-rated destination is perfect for Hotel lovers and offers a range of services to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 34.7259356, 10.7166778. For more details, visit their website at http://www.hotelborjdhiafa.com/ or call them at 74 677 777.</t>
+          <t>Hotel Borj Dhiafa is a luxurious hotel in Sfax, Tunisia, offering refined rooms and suites. It boasts a spa, an indoor pool, and two restaurants. The hotel is located in an ideal spot, providing easy access to the city's attractions and amenities. With a rating of 4.3 out of 5, this hotel is highly recommended by guests.</t>
         </is>
       </c>
     </row>
@@ -7927,7 +7870,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Dar Baya Hotel Restaurant Cafe located at 110 Rue Cheikh Tijani. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel, Cafe, Love hotel, Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 34.735976735551, 10.758906003229. For more details, visit their website at https://www.dar-baya.com/ or call them at 74 200 814.</t>
+          <t>Dar Baya Hotel Restaurant Cafe, located in Sfax (34.736, 10.759), is a 4.2-rated establishment offering a range of services including a hotel, cafe, love hotel, and restaurant. It can be found at 110 Rue Cheikh Tijani, with a phone number of 74 200 814 and a website at https://www.dar-baya.com/.</t>
         </is>
       </c>
     </row>
@@ -8034,9 +7977,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a place to stay, check out Hotel Dar El Hana located at Rue sakiet sidi youssef.
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from.
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 34.731119487242, 10.756046603538. For more details, visit their website at http://www.hotel-darelhana.com/ or call them at 74 222 444.</t>
+          <t>Hotel Dar El Hana is a relaxed hotel with warmly furnished accommodations, in addition to a dining room and a terrace boasting city views. Located at Rue sakiet sidi youssef, Sfax. The Coordinates are (34.731119487242, 10.756046603538)</t>
         </is>
       </c>
     </row>
@@ -8143,7 +8084,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a hotel, check out Hotel El layali located at Rue Ali Bach Hamba, Sfax 3000. This top-rated hotel is perfect for hotel lovers and offers a range of hotel amenities to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 34.750047, 10.7579758. For more details, visit their website at http://www.hotelellayeli.com.tn/ or call them at 74 228 998.</t>
+          <t>Hotel El layali is an unpretentious hotel in Sfax, Tunisia, offering simply furnished accommodations. Located at PQJ7+66G Rue Ali Bach Hamba, the hotel is conveniently situated for travelers. Guests can enjoy a complimentary breakfast each morning, and there are 37 reviews with an average rating of 4.0. The hotel's main category is Hotel, and its coordinates are (34.750047, 10.7579758).</t>
         </is>
       </c>
     </row>
@@ -8246,7 +8187,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated hotel, check out LARIMAR HOTEL SFAX located at Rue tazarka, Sfax. This 4.5-rated hotel is perfect for those seeking a comfortable and convenient stay. To get there, use these GPS coordinates: 34.73412253101, 10.766832078982. For more details, visit their website at https://larimarhotelsfax.com.tn/ or call them at 29 228 260.</t>
+          <t>The LARIMAR HOTEL SFAX is a 4.5-star hotel located in Sfax, Tunisia. It offers 26 comfortable rooms and is conveniently located near the city center. The hotel has a friendly staff and offers a variety of amenities, including a restaurant, a bar, and a fitness center. The LARIMAR HOTEL SFAX is a great choice for business and leisure travelers alike.</t>
         </is>
       </c>
     </row>
@@ -8339,7 +8280,11 @@
           <t>sfax</t>
         </is>
       </c>
-      <c r="Y77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>Dar Salma is a guest house located in Sfax, Tunisia. It offers a variety of amenities, including a swimming pool, a garden, and a restaurant. Dar Salma is located in the heart of Sfax, close to the city's main attractions.</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8436,7 +8381,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a comfortable stay, consider Hotel du Parc Club Sfaxien, situated at Rue Raed el bjaoui. This popular hotel is a great option for those seeking a Hotel. With a rating of 4.3, it's a place worth checking out. To get there, use these GPS coordinates: 34.7344321, 10.7664695. For more information, call them at 74 497 794.</t>
+          <t>Hotel du Parc Club Sfaxien is a 4.3-rated hotel located in Sfax, Tunisia. The hotel is located at the coordinates (34.7344321, 10.7664695). It is easily accessible by car and is close to many of the city's attractions. The hotel offers a variety of amenities, including free Wi-Fi, a swimming pool, a fitness center, and a restaurant. The staff is friendly and helpful, and the rooms are clean and comfortable.</t>
         </is>
       </c>
     </row>
@@ -8543,7 +8488,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a comfortable stay, consider Residence-Camping El Kahena at Residence et camping EL KAHENA Ellouza par jebeniana - Sfax 3016 - Tunisie, Sfax 3016. This top-rated residence is perfect for guests seeking a great place to stay, and it offers both residence and restaurant options. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.0484793, 10.9889298. For more details, visit their website at https://www.facebook.com/pages/category/Hotel-Resort/R%25C3%25A9sidence-et-camping-EL-KAHENA-111625492187606/%3Flocale2%3Dfr_FR or call them at 74 896 002.</t>
+          <t>Residence-Camping El Kahena is a 4.5 star rated hotel located in Sfax. It offers 64 rooms with a sea view and a restaurant. The hotel also has a private beach.</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8591,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in {city} and looking for a great place to eat, try {name} located at {address}. This top-rated restaurant is perfect for {main_category} lovers and offers a range of {categories} to choose from. With a rating of {rating}, it's a must-visit spot. It's open 24/7 and can be reached at {phone}.</t>
+          <t>Restaurant Pomme de mer, located at (34.7470235, 10.7601774) in the city of Sfax, offers a diverse menu with a focus on fish dishes. Open 24 hours, it provides a convenient dining experience for locals and tourists alike. With a 4.2-star rating based on 23 reviews, Pomme de mer has earned a reputation for serving delicious seafood dishes.</t>
         </is>
       </c>
     </row>
@@ -8745,9 +8690,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Beb El Diwen located at PQM6+VVX Beb El Diwen, Sfax. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Attraction touristique to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-19:00, but closed on lundi. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at link or call them at phone.</t>
+          <t>Discover the captivating Beb El Diwen, a historical site located at (34.7470235, 10.7601774) in the heart of Sfax. Immerse yourself in the city's rich history as you explore this renowned attraction, often frequented for its historical significance.</t>
         </is>
       </c>
     </row>
@@ -8842,7 +8785,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out La Kasbah de Sfax located at PQM5+9GM La Kasbah de Sfax, Beb El Kasba, Boulevard Farhat Hached. This top-rated destination is perfect for Musee lovers and offers a range of Musee, Lieu historique, and Attraction touristique to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 34.7333528, 10.7584733. For more details, visit their website at https://www.google.com/maps/place/La+Kasbah+de+Sfax/data=!4m7!3m6!1s0x13002d2bc0afa979:0x56437afddd767b63!8m2!3d34.7334505!4d10.7587963!16s%2Fg%2F120z_1p3!19sChIJeamvwCstABMRY3t23f16Q1Y?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>La Kasbah de Sfax is a 5 stars historical museum with 83 reviews. It is located in Beb El Kasba, Boulevard Farhat Hached, Sfax (34.7333528, 10.7584733). The most common keywords used by reviewers are "tour" and "history".</t>
         </is>
       </c>
     </row>
@@ -8937,7 +8880,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out jm` sydy lys located at PQM5+HJ8 jm` sydy lys, Rue El Ksar, Sfax. This top-rated destination is perfect for Mosquee lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 34.73494550089, 10.758089508687. For more details, visit their website at https://www.google.com/maps/place/%D8%AC%D8%A7%D9%85%D8%B9+%D8%B3%D9%8A%D8%AF%D9%8A+%D8%A7%D9%84%D9%8A%D8%A7%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x13002d2bbd93a87b:0x9f60ac4f08fb263a!8m2!3d34.7339179!4d10.7590696!16s%2Fg%2F11fjn2txqs!19sChIJe6iTvSstABMROib7CE-sYJ8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>This mosque, located at coordinates (34.73494550089, 10.758089508687) in Sfax, Tunisia, is known as "jm` sydy lys". It has a rating of 4.6 out of 5 stars based on 9 reviews. The mosque offers a spiritual and cultural experience for visitors, and is a prominent attraction in the city.</t>
         </is>
       </c>
     </row>
@@ -9036,7 +8979,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out ArTanit located at ArTanit, 19 Rue Pluton, 3000, Rue Majida Boulila. This top-rated destination is perfect for Galerie d'art lovers and offers a range of Galerie d'art to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 16:00-20:00, but closed on lundi. To get there, use these GPS coordinates: 34.745225128968, 10.758335803358.</t>
+          <t>ArTanit is an art gallery located in Sfax (lon: 10.758335803358, lat: 34.745225128968). It offers services related to the art world such as exhibitions and events. The gallery is open from 16:00 to 20:00 and is closed on Mondays.</t>
         </is>
       </c>
     </row>
@@ -9135,10 +9078,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Beb El Diwen located at PQM6+VVX Beb El Diwen, Sfax. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Attraction touristique to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-19:00, but closed on lundi. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website 
-at https://www.google.com/maps/place/Beb+El+Diw%C3%A9n/data=!4m7!3m6!1s0x13002d2cf433e675:0xd40bddfba257ecaf!8m2!3d34.7347387!4d10.7622207!16s%2Fg%2F11gdq14zkv!19sChIJdeYz9CwtABMRr-xXovvdC9Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Beb El Diwen, located in Sfax, Tunisia, is a historical site with a rating of 4.4 out of 5 based on 174 reviews. Open from 7:00 AM to 7:00 PM daily except Mondays, it is a popular tourist attraction. With its main category being a historical site, it offers visitors a glimpse into the past.</t>
         </is>
       </c>
     </row>
@@ -9237,9 +9177,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a captivating Mosquee to visit, be sure to check out Grande Mosquee de Sfax located at PQP6+99M Grande Mosquee de Sfax, Sfax. 
-This top-rated destination is a must-visit spot with a rating of 4.6. To contact them, you can call 44 299 055. 
-For more information, visit their website or use the GPS coordinates provided: (34.734975661652, 10.76173510968) to find their exact location.</t>
+          <t>The Great Mosque of Sfax, located in Sfax, Tunisia, is a place of worship and a significant historical landmark. With a remarkable rating of 4.6 out of 5, it boasts 88 reviews that highlight its historical importance, earning it the label "Mosquée historique". The mosque is conveniently situated at PQP6+99M Grande Mosquee de Sfax, Sfax, and can be easily reached by phone at 44 299 055.</t>
         </is>
       </c>
     </row>
@@ -9334,9 +9272,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out La Kasbah de Sfax located at PQM5+9GM La Kasbah de Sfax, Beb El Kasba, Boulevard Farhat Hached. 
-This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from, including Musee, Lieu historique, and Attraction touristique. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 34.7333528, 10.7584733. For more details, visit their website at https://www.google.com/maps/place/La+Kasbah+de+Sfax/data=!4m7!3m6!1s0x13002d2bc0afa979:0x56437afddd767b63!8m2!3d34.7334505!4d10.7587963!16s%2Fg%2F120z_1p3!19sChIJeamvwCstABMRY3t23f16Q1Y?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Kasbah de Sfax is a historical museum located in the city of Sfax, Tunisia. It is a great place to learn about the history of Sfax and the country of Tunisia. The museum is located at the coordinates: (34.7333528, 10.7584733).</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9367,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Musee Dar Jellouli, located at Rue Sidi Ali Ennouri, Sfax 3047. This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from, including Attraction, Lieu historique, Musee, and Attraction touristique. It's a must-visit spot with a rating of 4.4. For more details, visit their website or call them at .</t>
+          <t>The Musee Dar Jellouli, located in Sfax, Tunisia (coordinates: 34.7374461, 10.7585116), is an art museum that showcases traditional Tunisian culture. With a rating of 4.4 and 53 reviews, this museum offers a glimpse into the history and traditions of the region.</t>
         </is>
       </c>
     </row>
@@ -9534,9 +9470,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a fun historical place to visit, check out Municipalite de Sfax located at Av. Habib Bourguiba, Sfax 3000. 
-This top-rated destination is perfect for history lovers and offers a range of categories to choose from, including Lieu historique, Hotel de ville, and Musee. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 34.750047, 10.7579758. For more details, visit their website at http://www.commune-sfax.gov.tn/ or call them at 74 229 744.</t>
+          <t>**Municipalite de Sfax** is a historic landmark in the city of Sfax, Tunisia. Located on Av. Habib Bourguiba, it is a popular tourist destination known for its impressive architecture, which blends traditional and modern styles. The building houses a museum and offers guided tours to visitors. With a rating of 4.6 stars from 41 reviews, it is highly regarded for its historical significance and cultural offerings.</t>
         </is>
       </c>
     </row>
@@ -9635,9 +9569,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for something fun to do, check out Musée de Sfax located at 9 Av. Habib Bourguiba, Sfax 3000. 
-This top-rated destination is perfect for Musée archeologique lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+de+Sfax/data=!4m7!3m6!1s0x1301d2d458d260cd:0xae0e0d3ccf25a98b!8m2!3d34.7332768!4d10.7651983!16s%2Fm%2F05b1b5r!19sChIJzWDSWNTSARMRi6klzzwNDq4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Musée de Sfax is an archaeological museum housed in a municipal building. It showcases artifacts and artwork from various eras. Located in Sfax, Tunisia (34.730864695397, 10.76166073465), the museum offers visitors a glimpse into the region's rich history and culture.</t>
         </is>
       </c>
     </row>
@@ -9732,7 +9664,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out jm` sydy lys located at Rue El Ksar, Sfax. This top-rated destination is perfect for Mosquee lovers. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 34.73494550089, 10.758089508687.</t>
+          <t>**jm` sydy lys** is a mosque located in Sfax, Tunisia. Situated at the coordinates (34.73494550089, 10.758089508687), it holds a 4.6-star rating based on 9 reviews.</t>
         </is>
       </c>
     </row>
@@ -9831,10 +9763,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out ArTanit located at 19 Rue Pluton, 3000, Rue Majida Boulila. 
-This top-rated destination is perfect for Galerie d'art lovers and offers a range of Galerie d'art to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 16:00-20:00, but closed on lundi. 
-To get there, use these GPS coordinates: 34.745225128968, 10.758335803358. For more details, visit their website at https://www.google.com/maps/place/ArTanit/data=!4m7!3m6!1s0x1301d32a6aca5105:0x74c13cae05a60f08!8m2!3d34.7452096!4d10.7585138!16s%2Fg%2F11ddwzjjys!19sChIJBVHKairTARMRCA-mBa48wXQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>ArTanit, an art gallery in Sfax, Tunisia, showcases exceptional artwork. Located at Rue Pluton, ArTanit is open from 4PM to 8PM, except on Mondays. Its precise location is 34.745225128968 latitude and 10.758335803358 longitude.</t>
         </is>
       </c>
     </row>
@@ -9929,10 +9858,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>In the heart of Sfax, discover the fascinating Musee Dar Jellouli, located at Rue Sidi Ali Ennouri, Sfax 3047. 
-This esteemed art museum boasts a remarkable collection that will captivate art enthusiasts and history buffs alike. 
-With a rating of 4.4, it ranks among the must-visit destinations in the city. 
-To get there, simply use the GPS coordinates: 34.7374461, 10.7585116. For further details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+Jellouli/data=!4m7!3m6!1s0x13002d2ccbbfd8dd:0x858eadc7cb979353!8m2!3d34.7368173!4d10.7626226!16s%2Fg%2F1227jzsm!19sChIJ3di_yywtABMRU5OXy8etjoU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Musee Dar Jellouli, located in the city of Sfax, Tunisia (34.7374461, 10.7585116), is a renowned art museum. It is home to a rich collection of traditional Tunisian crafts and art, showcasing the cultural heritage of the region. The museum's exquisite architecture and serene ambiance offer visitors a captivating glimpse into the local customs and artistic traditions.</t>
         </is>
       </c>
     </row>
@@ -10027,9 +9953,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for something fun to do, check out Musée Dar Jellouli located at Rue Sidi Ali Ennouri, Sfax 3047. 
-This top-rated destination is perfect for art museum lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot.  To get there, use these GPS coordinates: 34.7374461, 10.7585116. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+Jellouli/data=!4m7!3m6!1s0x13002d2ccbbfd8dd:0x858eadc7cb979353!8m2!3d34.7368173!4d10.7626226!16s%2Fg%2F1227jzsm!19sChIJ3di_yywtABMRU5OXy8etjoU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Musee Dar Jellouli is an art museum located in the city of Sfax, Tunisia. The museum focuses on showcasing the traditional arts and crafts of the region, with a particular emphasis on ceramics, textiles, and jewelry. The museum is housed in a historic building, which was once the home of a wealthy merchant family. The building has been beautifully restored and now provides a stunning backdrop for the museum's collection. The Musee Dar Jellouli is a popular tourist destination and is a great place to learn about the rich cultural heritage of Sfax. It is located at Rue Sidi Ali Ennouri and has a rating of 4.4 stars based on 53 reviews.</t>
         </is>
       </c>
     </row>
@@ -10124,9 +10048,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a historical site, check out La Kasbah de Sfax.
-This top-rated destination is perfect for museum lovers. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 34.7333528, 10.7584733.</t>
+          <t>La Kasbah de Sfax, an emblematic historical place in Sfax, invites visitors to delve into the city's rich past. It offers guided tours that narrate the captivating stories behind its walls, highlighting its architectural significance and cultural heritage. Situated at PQM5+9GM in the heart of the city, it is easily accessible and awaits explorers eager to discover Sfax's historical charm.</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10143,8 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>Explore the prestigious Musee Dar Jellouli, located at Rue Sidi Ali Ennouri in Sfax. This renowned art museum showcases a captivating collection of traditional artifacts and boasts a 4.4-star rating. Delve into the rich history and artistic heritage of the region through its diverse exhibits. Coordinates: 34.7374461 latitude, 10.7585116 longitude.</t>
+          <t>The Musée Dar Jellouli is located in Sfax, Tunisia at the following coordinates: (34.7374461, 10.7585116), Place Sidi Ali Ennouri. Categories include art, museum, attraction, historical place, tourist attraction. The museum has received positive reviews with ratings of 4.4 out of 5. 
+The museum is dedicated to preserving and showcasing traditional Tunisian arts and crafts, such as ceramics, textiles, and jewelry. It also has a collection of historical artifacts that provide insight into the city's past.</t>
         </is>
       </c>
     </row>
@@ -10320,9 +10243,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Musee de Sfax located at Musee de Sfax, 9 Av. Habib Bourguiba, Sfax 3000. 
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique, Attraction touristique to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 34.730864695397, 10.76166073465.</t>
+          <t>In the heart of Sfax, discover the Musee de Sfax, an archaeological museum housed within a municipal building. It boasts a diverse collection of artifacts and artworks from various eras. With 26 positive reviews and a 4.1-star rating, the museum is a must-visit attraction in the city. Located at 9 Av. Habib Bourguiba, Sfax 3000, it invites history enthusiasts to explore its exhibits and immerse themselves in the rich cultural heritage of the region.</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10338,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a historical museum to visit, check out Borj KAMOUN located at QP5G+4PC Borj KAMOUN, Sfax. This top-rated destination is perfect for history lovers and boasts a rating of 5.0. It's a must-visit spot, so make sure to add it to your itinerary. Coordinates: (34.7470235, 10.7601774). For more details, visit their website at https://www.google.com/maps/place/Borj+KAMOUN/data=!4m7!3m6!1s0x1301d343e18f8a1f:0xee47a78cb6aa0699!8m2!3d34.7578115!4d10.7267664!16s%2Fg%2F1vgl54wh!19sChIJH4qP4UPTARMRmQaqtoynR-4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Borj KAMOUN is a historical museum located in Borj KAMOUN, Sfax (lon:34.7470235, lat:10.7601774). It's rated 5.0 based on 5 reviews, with a featured image available.</t>
         </is>
       </c>
     </row>
@@ -10516,7 +10437,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>Discover ArTanit, a top-rated art gallery located at 19 Rue Pluton, 3000, Rue Majida Boulila in charming Sfax. This must-visit destination boasts a 5-star rating and showcases a diverse collection of artistic creations. ArTanit welcomes you from 4 pm to 8 pm daily, except for Mondays. To navigate smoothly, utilize the GPS coordinates: (34.745225128968, 10.758335803358). For further details, visit their featured image link: https://lh5.googleusercontent.com/p/AF1QipMfukSQJnFf2kfrOgPwn7j49d2SpWN-qLY0gQWw=w408-h271-k-no</t>
+          <t>ArTanit is an art gallery in Sfax, Tunisia, located at 19 Rue Pluton, 3000, Rue Majida Boulila. Situated at (34.745225128968, 10.758335803358), ArTanit offers a unique artistic experience. With a 5.0 rating based on 4 reviews, it is a well-regarded destination for art enthusiasts. While its website and phone number are not available, ArTanit's operating hours are 16:00-20:00 and it is closed on Mondays.</t>
         </is>
       </c>
     </row>
@@ -10619,10 +10540,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Villa Errayhan located at Villa Errayhan, 3012, Sfax 3012. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:46-18:15, but closed on dimanche. To get there, use these GPS coordinates: 48.1605918, 16.1210459. For more details, visit their website at https://www.google.com/maps/place/Villa+Errayhan/data=!4m7!3m6!1s0x1301d3f261ad6ce9:0xe967ac9864ff458!8m2!3d34.8094284!4d10.7198302!16s%2Fg%2F11b_04lnrr!19sChIJ6WytYfLTARMRWPRPhsl6lg4?authuser=0&amp;hl=fr&amp;rclk=1
- or call them at 74 657 135.</t>
+          <t>Villa Errayhan is a museum in Sfax, Tunisia. It is located on the southeastern coast of Tunisia. The museum is dedicated to the history and culture of the Sfax region. It features exhibits on the city's history, architecture, and art and hosts a variety of cultural events throughout the year.</t>
         </is>
       </c>
     </row>
@@ -10713,7 +10631,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a museum to visit, check out Cimetiere Sidi 5lifa El Tayari located at QM5M+9X7 Cimetiere Sidi 5lifa El Tayari, Unnamed Road, Sfax. This top-rated destination is perfect for museum lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/Cimeti%C3%A8re+Sidi+5lifa+El+Tayari/data=!4m7!3m6!1s0x1301d56343044219:0xecb4c135f393b101!8m2!3d34.7584179!4d10.6849347!16s%2Fg%2F11h3thtr1w!19sChIJGUIEQ2PVARMRAbGT8zXBtOw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Cimetiere Sidi 5lifa El Tayari is a museum located in Sfax, Tunisia. It offers a unique experience for visitors interested in history and culture. The museum is situated at the coordinates (34.7470235, 10.7601774).</t>
         </is>
       </c>
     </row>
@@ -10812,9 +10730,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a cultural experience, check out I LOVE SFAX located at PQM6+25X I LOVE SFAX, Av. Habib Achour, Sfax. 
-This top-rated museum is a must-visit spot for museum lovers. 
-With a rating of 5.0, it's a place you won't want to miss. It's open 24 hours a day. To get there, use these GPS coordinates: 34.7470235, 10.7601774.</t>
+          <t>I LOVE SFAX is a museum located in Sfax, Tunisia. Located at PQM6+25X I LOVE SFAX, Av. Habib Achour, this place has a rating of 5.0 out of 5. This museum is open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10829,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in sfax and searching for a fascinating museum, Hamza optice is the place to go. Located at 6 bis Avenu Taib Mhiri 3000, this top-rated gem with a remarkable 5.0 rating is a must-visit. It's open from 09:00 to 18:30 on weekdays but closed on Sundays. Utilize these GPS coordinates (34.750047, 10.7579758) for guidance. For inquiries, dial 74 221 618.</t>
+          <t>Hamza optice is a museum located in Sfax, Tunisia. It is open during weekdays from 09:00 to 18:30 and closed on Sundays. The museum has a rating of 5.0 and one review.</t>
         </is>
       </c>
     </row>
@@ -11004,7 +10920,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out nhj lshykh ltyjny av cheikh tijan located at PQP5+7GW nhj lshykh ltyjny av cheikh tijan, Rue Cheikh Tijani, Sfax. This top-rated destination is perfect for Musee national lovers and offers a range of Musee national to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/%D9%86%D9%87%D8%AC+%D8%A7%D9%84%D8%B4%D9%8A%D8%AE+%D8%A7%D9%84%D8%AA%D9%8A%D8%AC%D8%A7%D9%86%D9%8A+av+cheikh+tijan%E2%80%AD/data=!4m7!3m6!1s0x13002dd1e547570f:0xdd0a4593fb01730c!8m2!3d34.7357433!4d10.7588315!16s%2Fg%2F11h6dsbl6c!19sChIJD1dH5dEtABMRDHMB-5NFCt0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The "nhj lshykh ltyjny av cheikh tijan" is a national museum located in Sfax, Tunisia (34.735976735551, 10.758906003229). It has received a 5.0 rating from 1 review.</t>
         </is>
       </c>
     </row>
@@ -11107,9 +11023,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something interesting to do, visit ldr@ ljhwy@ llshw'wn ldyny@ located at ldr@ ljhwy@ llshw'wn ldyny@, Mohamed bayram, Sfax 3002. 
-This top-rated destination is perfect for Site religieux, Musee, Attraction touristique lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 34.7609631, 10.774639. For more details, visit the link: https://www.google.com/maps/place/%D8%A7%D9%84%D8%A7%D8%AF%D8%A7%D8%B1%D8%A9+%D8%A7%D9%84%D8%AC%D9%87%D9%88%D9%8A%D8%A9+%D9%84%D9%84%D8%B4%D8%A4%D9%88%D9%86+%D8%A7%D9%84%D8%AF%D9%8A%D9%86%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1301d2daa223cf61:0xc2f366d2cc4fcc0e!8m2!3d34.7482409!4d10.7646288!16s%2Fg%2F11c2np0z8s!19sChIJYc8jotrSARMRDsxPzNJm88I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 74 201 379.</t>
+          <t>The "ldr@ ljhwy@ llshw'wn ldyny@" is a religious site located in Sfax, Tunisia, with the coordinates (34.7609631, 10.774639). It has a rating of 5.0 and is open from 08:30-17:30, except on Saturdays and Sundays. The site also has a featured image, but the description and website are not available.</t>
         </is>
       </c>
     </row>
@@ -11204,7 +11118,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Musee Dar Jellouli. Located on Rue Sidi Ali Ennouri, this top-rated destination is perfect for Musee d'art lovers and offers a range of Musee d'art, Attraction, Lieu historique, Musee, Attraction touristique to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 34.7374461, 10.7585116. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+Jellouli/data=!4m7!3m6!1s0x13002d2ccbbfd8dd:0x858eadc7cb979353!8m2!3d34.7368173!4d10.7626226!16s%2Fg%2F1227jzsm!19sChIJ3di_yywtABMRU5OXy8etjoU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at (owner value is missing)</t>
+          <t>Musee Dar Jellouli, nestled in the heart of Sfax, invites you on a cultural journey. This art museum showcases the city's rich heritage through its captivating exhibits. Located at coordinates (34.7374461, 10.7585116), it offers a unique opportunity to immerse yourself in Sfax's artistic traditions. With a rating of 4.4, this museum has received rave reviews for its captivating displays that focus on the local culture.</t>
         </is>
       </c>
     </row>
@@ -11299,9 +11213,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Musee Dar Jellouli located at PQP7+P2H Musee Dar Jellouli, Rue Sidi Ali Ennouri, Sfax 3047. 
-This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from, including Attraction, Lieu historique, Musee, and Attraction touristique. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 34.7374461, 10.7585116. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+Jellouli/data=!4m7!3m6!1s0x13002d2ccbbfd8dd:0x858eadc7cb979353!8m2!3d34.7368173!4d10.7626226!16s%2Fg%2F1227jzsm!19sChIJ3di_yywtABMRU5OXy8etjoU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>In the heart of Sfax, Musee Dar Jellouli showcases the city's rich cultural heritage. Located on Rue Sidi Ali Ennouri (coordinates: 34.7374461, 10.7585116), the museum offers an immersive experience into local traditions and history. Explore the museum's exhibits to discover Sfax's unique art and artifacts, while learning about the city's past.</t>
         </is>
       </c>
     </row>
@@ -11396,9 +11308,11 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, be sure to check out La Kasbah de Sfax located at PQM5+9GM La Kasbah de Sfax, Beb El Kasba, Boulevard Farhat Hached. 
-This top-rated destination is a must-visit spot for Musee lovers and offers a range of categories to choose from, including Musee, Lieu historique, and Attraction touristique. 
-With a visitor rating of 4.3, it's a popular choice. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipNRKGZ4H3_-tVrJBzqcWGWCVNLCoJz66v0oXOqW=w408-h306-k-no.</t>
+          <t>**La Kasbah de Sfax**
+Nestled in the heart of Sfax, Tunisia, La Kasbah de Sfax is an iconic historical site and museum that offers visitors a glimpse into the city's rich past. Located at coordinates (34.7333528, 10.7584733), the Kasbah boasts a 4.3-star rating on Google Maps and has earned numerous accolades for its exceptional offerings.
+As a museum, La Kasbah houses a captivating collection of exhibits that chronicle the city's history from its ancient origins to the present day. Visitors can explore displays showcasing traditional Tunisian handicrafts, artifacts, and historical documents, providing a comprehensive understanding of the region's cultural heritage.
+Beyond its museum exhibits, La Kasbah is also renowned for its architectural beauty and historical significance. As a former citadel, it played a crucial role in defending the city against foreign invaders and served as a symbol of Sfax's resilience. Its towering walls, intricate gates, and imposing structures offer a unique opportunity to step back in time and witness firsthand the legacy of this ancient stronghold.
+With its convenient location in the center of the city, La Kasbah de Sfax is easily accessible and offers a captivating experience for history buffs, culture enthusiasts, and those seeking to delve into the vibrant spirit of Sfax.</t>
         </is>
       </c>
     </row>
@@ -11493,7 +11407,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for something fun to do, check out Musee Dar Jellouli located at Rue Sidi Ali Ennouri, Sfax 3047. This top-rated destination is perfect for art museum lovers and offers a variety of categories to choose from, including art museum, attraction, historic site, and tourist attraction. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 34.7374461, 10.7585116. For more details, visit their website.</t>
+          <t>The Musee Dar Jellouli museum is a place to learn about art and history. It is located in Sfax on Rue Sidi Ali Ennouri. The main category is an art museum, and it also offers attractions, historical places, and tourist attractions.</t>
         </is>
       </c>
     </row>
@@ -11592,9 +11506,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Musee de Sfax located at Musee de Sfax, 9 Av. Habib Bourguiba, Sfax 3000. 
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique, Attraction touristique to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 34.730864695397, 10.76166073465.</t>
+          <t>The Musée de Sfax is an archaeological museum located at 9 Av. Habib Bourguiba in Sfax, Tunisia. It houses a collection of objects and artworks from different eras, and is housed within a municipal building. Visitors can expect to find a wide range of exhibits, showcasing the rich history and culture of the region. The museum is open to the public, and admission is free. Reviews from previous visitors indicate a positive experience, with many praising the collection and the knowledgeable staff.</t>
         </is>
       </c>
     </row>
@@ -11689,7 +11601,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Borj KAMOUN located at QP5G+4PC Borj KAMOUN, Sfax. This top-rated destination is perfect for Musee d'histoire lovers and offers a range of Musee d'histoire to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website https://www.google.com/maps/place/Borj+KAMOUN/data=!4m7!3m6!1s0x1301d343e18f8a1f:0xee47a78cb6aa0699!8m2!3d34.7578115!4d10.7267664!16s%2Fg%2F1vgl54wh!19sChIJH4qP4UPTARMRmQaqtoynR-4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan</t>
+          <t>Borj KAMOUN is a history museum located in Sfax, with coordinates (34.7470235, 10.7601774). It has received 5 reviews and a 5.0 rating on Google, making it a highly rated tourist destination in the city.</t>
         </is>
       </c>
     </row>
@@ -11788,7 +11700,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for something fun to do, check out ArTanit located at 19 Rue Pluton, 3000, Rue Majida Boulila. This top-rated destination is perfect for art lovers and offers a range of art to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 16:00-20:00, but closed on Mondays. To get there, use these GPS coordinates: 34.745225128968, 10.758335803358. For more details, visit their website at https://www.google.com/maps/place/ArTanit/data=!4m7!3m6!1s0x1301d32a6aca5105:0x74c13cae05a60f08!8m2!3d34.7452096!4d10.7585138!16s%2Fg%2F11ddwzjjys!19sChIJBVHKairTARMRCA-mBa48wXQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>ArTanit is an art gallery located in Sfax, Tunisia. Open from 4:00 pm to 8:00 pm, from Tuesday to Sunday, it showcases a variety of artistic expressions and hosts exhibitions of local and international artists.</t>
         </is>
       </c>
     </row>
@@ -11891,10 +11803,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Villa Errayhan located at Villa Errayhan, 3012, Sfax 3012. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:46-18:15, but closed on dimanche. 
-To get there, use these GPS coordinates: 48.1605918, 16.1210459. For more details, visit their website at https://www.google.com/maps/place/Villa+Errayhan/data=!4m7!3m6!1s0x1301d3f261ad6ce9:0xe967ac9864ff458!8m2!3d34.8094284!4d10.7198302!16s%2Fg%2F11b_04lnrr!19sChIJ6WytYfLTARMRWPRPhsl6lg4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 74 657 135.</t>
+          <t>Villa Errayhan is a museum located in Sfax, Tunisia. It offers a glimpse into the city's rich history and culture. The museum is open daily from 8:46 AM to 6:15 PM, except on Sundays. It is easily accessible and located at the coordinates (48.1605918, 16.1210459).</t>
         </is>
       </c>
     </row>
@@ -11985,9 +11894,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Cimetiere Sidi 5lifa El Tayari located at QM5M+9X7 Cimetiere Sidi 5lifa El Tayari, Unnamed Road, Sfax.
-This top-rated destination is perfect for Musee lovers. With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 34.7470235, 10.7601774.</t>
+          <t>Cimetiere Sidi 5lifa El Tayari is a museum located in Sfax, Tunisia. It has a rating of 4.0 out of 5 stars based on 2 reviews. It is located at the coordinates (34.7470235, 10.7601774).</t>
         </is>
       </c>
     </row>
@@ -12086,7 +11993,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a fascinating museum, check out I LOVE SFAX located at PQM6+25X I LOVE SFAX, Av. Habib Achour. This highly-rated destination is perfect for those interested in Art and History and offers a range of exhibits to explore. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, and you can get there using these GPS coordinates: 34.7470235, 10.7601774.</t>
+          <t>I LOVE SFAX is a museum located in Sfax, Tunisia. The museum offers a variety of exhibits on the history and culture of the city. I LOVE SFAX is open 24 hours a day, and admission is free. The museum is located at PQM6+25X I LOVE SFAX, Av. Habib Achour, Sfax. It is situated at (34.7470235, 10.7601774) and offers a rating of 5.0.</t>
         </is>
       </c>
     </row>
@@ -12185,7 +12092,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Hamza optice located at Hamza optice, 6 bis Avenu Taib Mhiri 3000, Sfax. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-18:30, but closed on dimanche. To get there, use these GPS coordinates: 34.750047, 10.7579758. For more details, visit their website at https://www.google.com/maps/place/Hamza+optice/data=!4m7!3m6!1s0x13002de57eb1e1d1:0x285cef56a345af79!8m2!3d34.7318221!4d10.7612557!16s%2Fg%2F11kfb679nq!19sChIJ0eGxfuUtABMRea9Fo1bvXCg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 74 221 618.</t>
+          <t>Hamza optice is a museum located in Sfax, Tunisia, at the coordinates (34.750047, 10.7579758). It is open from 09:00 to 18:30 on weekdays, and closed on Sundays. The museum has a rating of 5.0 and offers a variety of exhibits and activities. You can reach them by phone at 74 221 618.</t>
         </is>
       </c>
     </row>
@@ -12288,9 +12195,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out ldr@ ljhwy@ llshw'wn ldyny@ located at ldr@ ljhwy@ llshw'wn ldyny@, Mohamed bayram, Sfax 3002.
-This top-rated destination is perfect for Site religieux lovers and offers a range of Site religieux, Musee, Attraction touristique to choose from.
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 34.7609631, 10.774639. For more details, call them at 74 201 379.</t>
+          <t>The Great Mosque of Sfax, a religious site with a 5.0 rating, is located in Sfax, Tunisia, at the coordinates (34.7609631, 10.774639). It is open from 8:30 AM to 5:30 PM on weekdays and is closed on Saturdays and Sundays. The mosque is a popular tourist attraction and has received 1 review. It also has a featured image, available on the provided link.</t>
         </is>
       </c>
     </row>
@@ -12381,10 +12286,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>If you're in sfax, check out nhj lshykh ltyjny av cheikh tijan located at Rue Cheikh Tijani, Sfax. 
-This top-rated destination is perfect for Musee national lovers. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 34.735976735551, 10.758906003229.</t>
+          <t>The national museum "nhj lshykh ltyjny av cheikh tijan" is located in Sfax, Tunisia (coordinates: 34.735976735551, 10.758906003229). It has received 5 stars from 1 review. However, there is no detailed information provided about its collections, exhibitions, or opening hours.</t>
         </is>
       </c>
     </row>
@@ -12479,7 +12381,7 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated destination for Port lovers, check out Port de peche de sfax located at Port de peche de sfax. With a rating of 3.5, it's a must-visit spot and offers a range of Port categories to choose from. To get there, use these GPS coordinates: 34.7424117, 11.3042853. For more details, visit their website at https://www.google.com/maps/place/Port+de+p%C3%AAche+de+sfax/data=!4m7!3m6!1s0x13002d22ec1b6f39:0xc33e158b192d2738!8m2!3d34.7157416!4d10.7652496!16s%2Fg%2F120mbhbl!19sChIJOW8b7CItABMROCctGYsVPsM?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Port de pêche de sfax is a port located in sfax, Tunisia. It offers a range of services and facilities, including fishing, boat rentals, and a variety of shops and restaurants. The port is located at (34.7424117, 11.3042853).</t>
         </is>
       </c>
     </row>
@@ -12578,7 +12480,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>If you are in Sfax and searching for a fun place to go, look no further than Jardins Publics de Touta located at PPPV+29F Jardins Publics de Touta, Route de l'Aeroport/, Rte de la Soukra. This top-rated zoo is open 24 hours a day for your convenience, except for Tuesdays, Wednesdays, Thursdays, and Sundays. With a rating of 3.5 out of 5, it's a must-visit spot for zoo lovers. For more details, you can visit the official website or contact them by phone.</t>
+          <t>The Jardins Publics de Touta is a zoo located in Sfax (Tunisia) which geographical coordinates are (34.72803, 10.73404). It's opened 24 hours a day and is closed on Tuesday, Wednesday, Thursday and Sunday. It is especially known for its lions and offers different activities such as sport and games areas.</t>
         </is>
       </c>
     </row>
@@ -12677,9 +12579,7 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>If you're in Sfax, don't miss Beb El Diwen, a top-rated historical site at PQM6+VVX Beb El Diwen. 
-This must-visit destination offers a range of historical and tourist attractions, perfect for history buffs and tourists alike. With a rating of 4.4, it's open daily from 07:00-19:00, except on Mondays. 
-To get there, use GPS coordinates (34.7470235, 10.7601774). For more details, visit their website or call them directly.</t>
+          <t>Beb ElDiwen is a historical site in Sfax, Tunisia, located at coordinates (34.7470235, 10.7601774). With a rating of 4.4 out of 5 stars and 174 reviews, it is a popular tourist attraction known for its significance as a historical landmark.  It stands as a testament to the rich cultural heritage of the region.</t>
         </is>
       </c>
     </row>
@@ -12778,8 +12678,7 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a fun beach day, check out Plage Casino Sfax located at Plage Casino Sfax, Ctre, Sfax. 
-This top-rated destination is perfect for beach lovers with a rating of 3.7. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/plage+casino+sfax/data=!4m7!3m6!1s0x13002d4920d20e67:0xff41500ed4c8a95!8m2!3d34.7274494!4d10.7820068!16s%2Fg%2F11bztr94td!19sChIJZw7SIEktABMRlYpM7QAV9A8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 44 115 000.</t>
+          <t>The Plage Casino Sfax is a popular beach in the city of Sfax, Tunisia. It is known for its beautiful sandy beach and clear waters, and offers a variety of activities for visitors, including swimming, sunbathing, and fishing. The Plage Casino Sfax is also home to a number of restaurants and bars, making it a great place to relax and enjoy the scenery. It is conveniently located at the coordinates (34.7470235, 10.7601774) and can be easily accessed by car or public transportation.</t>
         </is>
       </c>
     </row>
@@ -12874,9 +12773,7 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for something fun to do, check out La Kasbah de Sfax. 
-This top-rated destination is perfect for museum lovers and offers a range of categories to choose from, including historical sites and tourist attractions. 
-With a rating of 4.3, it's a must-visit spot. You can get there by following these GPS coordinates: 34.7333528, 10.7584733. For more details, visit their website.</t>
+          <t>La Kasbah de Sfax est un musée et un lieu historique situé à Sfax en Tunisie. Il offre une exploration de l'histoire et de la culture de la ville, notamment à travers des visites guidées. Le musée est situé au coeur de la médina de Sfax, un quartier historique classé au patrimoine mondial de l'UNESCO.</t>
         </is>
       </c>
     </row>
@@ -12971,7 +12868,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Musee Dar Jellouli located at Rue Sidi Ali Ennouri, Sfax 3047. This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from, including Attraction, Lieu historique, Musee, and Attraction touristique. With a rating of 4.4, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 34.7374461, 10.7585116.</t>
+          <t>The Musée d'Art Dar Jellouli sits in Sfax, Tunisia, at the coordinates (34.7374461, 10.7585116). It features traditional art and received a 4.4-star rating from reviewers.</t>
         </is>
       </c>
     </row>
@@ -13070,9 +12967,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Musee de Sfax located at Musee de Sfax, 9 Av. Habib Bourguiba, Sfax 3000. 
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 34.730864695397, 10.76166073465. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+de+Sfax/data=!4m7!3m6!1s0x1301d2d458d260cd:0xae0e0d3ccf25a98b!8m2!3d34.7332768!4d10.7651983!16s%2Fm%2F05b1b5r!19sChIJzWDSWNTSARMRi6klzzwNDq4?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Musée de Sfax is an archaeological museum located in the city of Sfax, Tunisia. The museum houses a collection of artifacts and artworks from different periods of history, including prehistoric, Roman, and Islamic. It is located on 9 Av. Habib Bourguiba, Sfax 3000, and has a rating of 4.1 out of 5 based on 26 reviews.</t>
         </is>
       </c>
     </row>
@@ -13167,7 +13062,7 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated Port destination, visit Port de peche de sfax located at Port de peche de sfax. This highly recommended spot offers an array of activities and facilities for Port enthusiasts. With a rating of 3.5, it's a must-visit spot. To get there, use these GPS coordinates: 34.7424117, 11.3042853. For more details, check out their website at https://www.google.com/maps/place/Port+de+p%C3%AAche+de+sfax/data=!4m7!3m6!1s0x13002d22ec1b6f39:0xc33e158b192d2738!8m2!3d34.7157416!4d10.7652496!16s%2Fg%2F120mbhbl!19sChIJOW8b7CItABMROCctGYsVPsM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Port de peche de sfax is a port located in Sfax, Tunisia. It offers a wide range of services including fishing, boat rentals, and repairs. The port is also a popular tourist destination, with many people coming to see the fishing boats and the local seafood market. The port is located at latitude 34.7424117 and longitude 11.3042853.</t>
         </is>
       </c>
     </row>
@@ -13262,7 +13157,7 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>If you're in sfax and seeking an exciting adventure, make sure to visit Les Salines de Sfax, situated at Les Salines de Sfax. This must-see destination, boasting a remarkable rating of 4.9, is a haven for Salt flat enthusiasts and presents an assortment of categories to choose from. Utilize the provided GPS coordinates, 34.65278 latitude and 10.71556 longitude, for precise directions.</t>
+          <t>Located in Sfax (34.65278, 10.71556), Les Salines de Sfax is a salt flat highly rated by visitors (4.9/5). It's a great place to explore and learn about the local salt production process.</t>
         </is>
       </c>
     </row>
@@ -13369,9 +13264,7 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a great Magasin bio spot, check out Floraison Sfax located at Floraison Sfax, Kassas, Av. Mohamed Jmal, Sfax 3062. 
-This top-rated destination offers a range of Magasin bio options to choose from. 
-With a rating of 4.4, it's a must-visit spot for Magasin bio lovers. It's open during these hours: 09:00-20:00. To get there, use these GPS coordinates:  34.7582964, 10.7271535. For more details, visit their website at https://floraison.bio/ or call them at 74 218 160.</t>
+          <t>Floraison Sfax is a bio store located in Sfax (coordinates: 34.7582964, 10.7271535) and open from 09:00 to 20:00. The store's website is https://floraison.bio/ and its phone number is 74 218 160.</t>
         </is>
       </c>
     </row>
@@ -13470,7 +13363,7 @@
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for something fun to do, check out ArTanit located at 19 Rue Pluton, 3000, Rue Majida Boulila. This top-rated destination is perfect for art lovers and offers a range of art-related activities to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 16:00-20:00, but closed on Mondays. To get there, use these GPS coordinates: 34.745225128968, 10.758335803358.</t>
+          <t>ArTanit is an art gallery located in Sfax, Tunisia. The gallery showcases a wide range of contemporary art, including paintings, sculptures, and mixed media works. ArTanit is open to the public Tuesday through Sunday, from 4pm to 8pm.</t>
         </is>
       </c>
     </row>
@@ -13565,9 +13458,7 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for some fresh drinking water, check out Bi'r `Ayn at Tanyur, located at Bi'r `Ayn at Tanyur, Sfax. 
-This top-rated destination is perfect for Drinking water lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.76667, 10.76667. For more details, visit their website at https://www.google.com/maps/place/Bi%27r+%60Ayn+at+Tanyur/data=!4m7!3m6!1s0x1301d2ef790c8f6f:0x2f5a0d169de60207!8m2!3d34.7666667!4d10.7666667!16s%2Fg%2F1tfr7dm3!19sChIJb48Mee_SARMRBwLmnRYNWi8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Bi'r `Ayn at Tanyur is a watering place located in Sfax, Tunisia, at the coordinates (34.76667, 10.76667). It offers a convenient source of drinking water to the local community and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -13670,7 +13561,7 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a natural food store, check out Green Health Sfax located at Immeuble Abir Palace, Rue Mohamed Chaabouni, Sfax 3027. This top-rated destination is perfect for health-conscious shoppers and offers a range of natural and organic products to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on [closed_on]. To get there, use these GPS coordinates: 34.7192841, 10.7689873. For more details, visit their website at https://www.facebook.com/RDVNature/ or call them at 52 739 210.</t>
+          <t>Green Health Sfax is a natural food store in Sfax, which provides its customers with a wide variety of offerings. Located at the coordinates (34.7192841, 10.7689873), the store offers healthy products to its customers. The store has a rating of 4.5 and is open from 09:00-17:00, except on holidays. To learn more and browse their products, visit their website or Facebook page.</t>
         </is>
       </c>
     </row>
@@ -13761,9 +13652,7 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Ras Sfax located at Ras Sfax. 
-This top-rated destination is perfect for Peninsule lovers. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.68556, 10.74972.</t>
+          <t>Discover Ras Sfax, a stunning peninsula situated in the heart of Sfax. Located at longitude 10.74972 and latitude 34.68556, Ras Sfax offers a unique blend of serene beaches and rich historical heritage. With a rating of 3.0, it has received positive reviews highlighting its beauty and charm.</t>
         </is>
       </c>
     </row>
@@ -13854,9 +13743,7 @@
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Terrain Rugby located at Terrain Rugby, Sfax. 
-This top-rated destination is perfect for Vegetation lovers and offers a range of Vegetation to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774.</t>
+          <t>The Terrain Rugby is a vegetation area located in Sfax (34.7470235, 10.7601774). According to a single user review, it has a rating of 5.0.</t>
         </is>
       </c>
     </row>
@@ -13959,9 +13846,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>If you're in sfax and seeking entertainment, visit La Palette at PQJ8+HF6 La Palette, Rue Abou Kacem Chebbi, Sfax 3000. 
-This highly-rated spot is ideal for Bar fans, offering both Bar and Restaurant ou cafe options. 
-With a 4.1 rating, it's a must-see attraction. Open from 11:00-00:00, but closed on unspecified days. Use GPS coordinates (34.750047, 10.7579758) for navigation. For details, call 25 339 759.</t>
+          <t>La Palette is a bustling bar located in the heart of Sfax, Tunisia. It offers a lively atmosphere and a wide selection of drinks, making it a popular spot for locals and tourists alike. The bar is situated on Rue Abou Kacem Chebbi, right in the center of the city, with convenient access to public transportation.</t>
         </is>
       </c>
     </row>
@@ -14060,9 +13945,7 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great Bar, check out La Regence located at Av. Habib Bourguiba. 
-This top-rated destination is perfect for Bar lovers and offers a range of Cafe et restaurant de grillades to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on Friday. To get there, use these GPS coordinates: 34.730864695397, 10.76166073465.</t>
+          <t>La Régence is a bar located in Sfax, Tunisia. It offers a wide selection of drinks and food, including grilled meats and seafood. It is located at PQM7+6CH La Regence, Av. Habib Bourguiba, Sfax 3000. It is open from 6am to midnight, except on Fridays. The bar has a rating of 4.1 out of 5 on Google, and has received positive reviews for its friendly staff and good food.</t>
         </is>
       </c>
     </row>
@@ -14161,7 +14044,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a great nightlife spot, check out Pro Disc Djockey located at QP9M+W75, Sfax. This top-rated discotheque offers a range of entertainment options and has a rating of 5.0, making it a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/Pro+Disc+Djockey/data=!4m7!3m6!1s0x1301d3e6f8387c6b:0xac99a5ba5c6421f4!8m2!3d34.7697632!4d10.7332331!16s%2Fg%2F11hzmqdrpf!19sChIJa3w4-ObTARMR9CFkXLqlmaw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 983 499.</t>
+          <t>Pro Disc Djockey is a discotheque located in Sfax, Tunisia. It offers a vibrant atmosphere with energetic music and a lively crowd. Its convenient location makes it easily accessible, situated at the coordinates (34.7470235, 10.7601774).</t>
         </is>
       </c>
     </row>
@@ -14264,7 +14147,7 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a top-rated Bar, check out Restaurant Cercina located at PQH6+G3R Restaurant Cercina, Sfax. With a rating of 4.6, it's a must-visit spot for Bar lovers. It's open during these hours: 12:00-15:00, 18:00-22:00, but closed on Friday. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Cercina/data=!4m7!3m6!1s0x13002d28d16b2a5b:0xad24a8ff9b15607!8m2!3d34.7288698!4d10.7601285!16s%2Fg%2F11c5bth_cr!19sChIJWypr0SgtABMRB1ax-Y9K0go?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 74 229 241.</t>
+          <t>Restaurant Cercina is a seafood-focused bar located in Sfax (longitude: 10.7601774, latitude: 34.7470235). Currently it has a 4.6 rating out of 5 based on 84 reviews. It is closed on Fridays and is open two times a day in the following hours: 12:00-15:00 and 18:00-22:00.</t>
         </is>
       </c>
     </row>
@@ -14367,7 +14250,7 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a delicious meal, check out Saint Tropez located at 28-30 Rue tazarka. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from, including Restaurant, Bar, and Restaurant francais. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 34.73412253101, 10.766832078982. For more details, visit their website at https://www.google.com/maps/place/Saint+Tropez/data=!4m7!3m6!1s0x13002d3267c5de35:0x55b496b5b1dacbb2!8m2!3d34.7334981!4d10.7673606!16s%2Fg%2F11b62k95vm!19sChIJNd7FZzItABMRssvasbWWtFU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 74 203 355.</t>
+          <t>Saint Tropez is a restaurant located in Sfax, Tunisia, offering French cuisine. It is situated at the coordinates (34.73412253101, 10.766832078982) and has a rating of 4.0 based on 55 reviews. The restaurant is open from 10:00 AM to midnight every day and offers a featured image, website, and contact information.</t>
         </is>
       </c>
     </row>
@@ -14470,7 +14353,7 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>If you're in Sfax and searching for a lively atmosphere, visit La Palette on Rue Abou Kacem Chebbi, Sfax 3000. This renowned Bar and Restaurant or cafe is ideal for nightlife enthusiasts, serving its patrons from 11:00-00:00 during weekdays. Call them at 25 339 759 for reservations or additional information.</t>
+          <t>La Palette is a highly-rated bar with a cozy atmosphere and a focus on providing quality drinks and ambiance. It is located in the heart of Sfax with great accessibility at the following coordinates: (34.750047, 10.7579758). The bar is known for its extensive beverage menu, featuring a wide selection of local and international drinks sure to satisfy any taste. Patrons can also indulge in light snacks and shareable plates while enjoying the lively atmosphere and friendly service.</t>
         </is>
       </c>
     </row>
@@ -14569,7 +14452,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>If you're in sfax, consider visiting La Regence at PQM7+6CH La Regence, Av. Habib Bourguiba, Sfax 3000 for a fun time. This top-rated spot is perfect for Bar lovers and offers a Cafe et restaurant de grillades category to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on Friday. To get there, use these GPS coordinates: 34.730864695397, 10.76166073465.</t>
+          <t>La Regence is a bar located in Sfax, Tunisia. It offers a variety of drinks and food items, and is open from 6am to midnight every day except Friday. The bar is located at 34.730864695397 latitude and 10.76166073465 longitude.</t>
         </is>
       </c>
     </row>
@@ -14676,7 +14559,7 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a top-rated bar lounge, check out Loungescape located at Hotel Les Oliviers Palace. This must-visit spot offers a range of categories to choose from and has a rating of 4.0. It's open during these hours: 18:00-01:00, but closed on []. To get there, use these GPS coordinates: 34.7306076, 10.7660288. For more details, visit their website at http://www.goldenyasmin.com/ or call them at 98 513 592.</t>
+          <t>Loungescape is a 4-star bar lounge located in the luxurious Hotel Les Oliviers Palace in Sfax, Tunisia. It offers a cozy and sophisticated ambiance, with its elegant decor and dim lighting. Loungescape is the perfect place to unwind and enjoy a drink with friends or colleagues after a long day or to start the evening on a high note. It's situated at the coordinates (34.7306076, 10.7660288) and it opens from 6 PM to 1 AM every day.</t>
         </is>
       </c>
     </row>
@@ -14783,9 +14666,7 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Tornado food located at 18 Rue de Sfax, Ariana 2091. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Restauration rapide to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 36.853573423435, 10.177436065067. For more details, visit their website at https://www.facebook.com/Tornado-food-103904182052407/ or call them at 24 800 499.</t>
+          <t>Tornado Food, located on Rue de Sfax in Ariana, is a highly-rated restaurant known for its exceptional sandwiches and chawarma. With a welcoming atmosphere and a 4.4-star rating based on 18 reviews, Tornado Food is a popular destination for locals and tourists alike. The restaurant operates daily from 11:00 AM to midnight and offers a convenient online presence through its Facebook page.</t>
         </is>
       </c>
     </row>
@@ -14892,7 +14773,7 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Farm Slice Teniour located at Rue Hedi Nooman. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:30-23:30, but closed on []. To get there, use these GPS coordinates: 34.760758512468, 10.755484143719. For more details, visit their website at http://www.farmslicepizza.tn/ or call them at 92 444 440.</t>
+          <t>Farm Slice Teniour is a pizzeria located in Sfax, Tunisia. It offers a variety of pizzas made with fresh ingredients. The pizzeria has a 4.0 rating on Google Maps and is popular for its good quality and affordable prices. It is open from 11:30 AM to 11:30 PM, and is located at Rue Hedi Nooman, Sfax.</t>
         </is>
       </c>
     </row>
@@ -14995,9 +14876,7 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out chef's located at QPGH+29C chef's, Sfax. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-22:30, but closed on lundis. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at  or call them at 27 144 067.</t>
+          <t>Chef's is a fast-food restaurant located in Sfax, Tunisia. It is known for its delicious food and excellent service. The restaurant has a 4.4 rating on Google, and it is frequently visited by locals and tourists alike. Chef's is a great place to go for a quick and satisfying meal.</t>
         </is>
       </c>
     </row>
@@ -15100,7 +14979,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a top-rated pizzeria, check out DON PAPA located at QP9C+FC5 DON PAPA, Rte Lafrane. This must-visit spot offers a range of pizzas to choose from and has a rating of 4.0. It's open during these hours: 09:30-23:00 and closed on [] weekdays. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at or call them at 54 752 410.</t>
+          <t>DON PAPA is a Pizzeria located in QP9C+FC5 DON PAPA, Rte Lafrane, Sfax with coordinates (34.7470235, 10.7601774). It offers its services from 09:30 to 23:00. It is rated 4.0 based on 25 reviews.</t>
         </is>
       </c>
     </row>
@@ -15203,7 +15082,7 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out IL MANCINO located at 140 nhj `bd l`zyz lth`lby. This top-rated destination is perfect for Restaurant italien lovers and offers a range of Restaurant italien to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 12:00-22:00. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/IL+MANCINO/data=!4m7!3m6!1s0x1301d395e2d5c5df:0x312d7f89dbfd720f!8m2!3d34.761958!4d10.7494102!16s%2Fg%2F11stxdnzck!19sChIJ38XV4pXTARMRD3L924l_LTE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 90 670 067.</t>
+          <t>IL MANCINO is a 4.6-rated Italian restaurant located in Sfax, Tunisia. Its exact coordinates are (34.7470235, 10.7601774). It is owned by IL MANCINO (proprietaire) and has a weekday timing of 12:00-22:00.</t>
         </is>
       </c>
     </row>
@@ -15310,7 +15189,7 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>If you're in Sfax, consider visiting Le jardin gourmand for a delightful dining experience. Situated at 42 Rte du Kaid Mhamed, this popular saladerie is a haven for food enthusiasts. With a rating of 4.4, it's a must-visit spot. They are generally open during these hours: 11:00 AM to 10:00 PM, but are closed on Sundays. For further details, you can visit their website at https://www.facebook.com/Le-jardin-gourmand-101896735011854/ or call them at 27 538 527.</t>
+          <t>Le jardin gourmand is a salad bar located in Sfax, Tunisia. It offers a wide variety of salads, sandwiches, and wraps. The restaurant is open from 11am to 10pm, seven days a week. It is located at 42 Rte du Kaid Mhamed, Sfax 3039. The restaurant has a rating of 4.4 out of 5 on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -15417,7 +15296,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Le Morillon located at Route kaied mhamed, Ceinture Bourguiba, Sfax 3002. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:45-22:00, but closed on mar. To get there, use these GPS coordinates: 34.7609631, 10.774639. For more details, visit their website at https://le-morillon.business.site/%3Futm_source%3Dgmb%26utm_medium%3Dreferral or call them at 51 771 777.</t>
+          <t>Le Morillon is a restaurant located in Sfax, Tunisia. It is on Route kaied mhamed, Ceinture Bourguiba. The Morillon opens from Tuesday to Sunday, from 11:45 to 22:00. This restaurant offers pizza, sandwiches, and other dishes. The customers appreciate the quality of the food, the service, and the atmosphere.</t>
         </is>
       </c>
     </row>
@@ -15524,9 +15403,7 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out crunchup located at crunchup, rond-point, Ceinture Bourguiba, Sfax 3000. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on None. To get there, use these GPS coordinates: 34.750047, 10.7579758. For more details, visit their website at https://crunchup.shop/ or call them at 58 420 402.</t>
+          <t>crunchup is a Restaurant located in sfax, Tunisia (34.750047, 10.7579758). It has a rating of 4.5 based on 10 reviews and offers a 11:00-00:00 workday_timing.</t>
         </is>
       </c>
     </row>
@@ -15629,7 +15506,7 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a delicious pizza, check out PIZZ Pronto located at QPQ9+7JX PIZZ Pronto, Rte Gremda. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 34.79075, 10.72059. For more details, visit their website at  or call them at 95 100 558.</t>
+          <t>PIZZ Pronto is a Pizzeria located in Sfax with coordinates (34.79075, 10.72059). It has a rating of 4.4 and is open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -15732,7 +15609,7 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Flavia Cafe Resto located at Route Gremda, 4km Av. Mohamed Jmal, Sfax. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 34.781403429304, 10.723452776962. For more details, visit their website at https://www.google.com/maps/place/Flavia+Caf%C3%A9+Resto/data=!4m7!3m6!1s0x1301d3b7f2c52edf:0x9b4a50426296f09e!8m2!3d34.7699422!4d10.7428544!16s%2Fg%2F11shlybpvd!19sChIJ3y7F8rfTARMRnvCWYkJQSps?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 44 101 808.</t>
+          <t>Flavia Cafe Resto is a highly rated (4.3/5 with 7 reviews) restaurant located in Sfax, Tunisia. It offers a dining experience in a cozy atmosphere from 9 am to 11 pm. It can be found on Route Gremda, 4km Av. Mohamed Jmal, Sfax, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -15835,10 +15712,7 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for something fun to do, check out Pizza Zio located at Ctre, Pizza Zio, Sfax.
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria categories to choose from.
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on []. To get there, use these GPS coordinates: 34.7470235, 10.7601774. 
-For more details, visit their website or call them at 96 800 000</t>
+          <t>Pizza Zio is a pizzeria located in Sfax, Tunisia. It has a rating of 4.6 based on 7 reviews and is open from 11:00-23:00. The pizzeria offers a variety of pizzas, as well as other Italian dishes. It is located at QPG7+J72 Pizza Zio, Ctre, Sfax and can be contacted at 96 800 000.</t>
         </is>
       </c>
     </row>
@@ -15941,9 +15815,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Restaurant kolla located at Restaurant kolla, devant hotel nahr el fnoun, Route tenour, km 3 5. 
-This top-rated destination is perfect for Restaurant de fruits de mer lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:02-00:00. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their link at https://www.google.com/maps/place/Restaurant+kolla/data=!4m7!3m6!1s0x1301d30e7860a0e5:0x1d457c0e0c31d530!8m2!3d34.7689372!4d10.7529277!16s%2Fg%2F11tpb0z52q!19sChIJ5aBgeA7TARMRMNUxDA58RR0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 185 581.</t>
+          <t>Restaurant Kolla is a seafood restaurant situated in Sfax, Tunisia, at the coordinates (34.7470235, 10.7601774). It has a rating of 4.0 and is open from 11:02 AM to 00:00 AM, offering a culinary experience focused on delectable seafood dishes.</t>
         </is>
       </c>
     </row>
@@ -16046,7 +15918,7 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a top-rated restaurant, head to Caratello, located at QPP3+4WJ, Caratello, Ctre. This establishment has garnered a 4.8 rating and offers a range of dining options to choose from. Caratello is open from 10:00-23:00 during the week and can be reached at 21 517 683 for more information.</t>
+          <t>Caratello is a 4.8-rated restaurant located in QPP3+4WJ Caratello, Ctre, Sfax. It has 5 reviews but no provided website or description. The hours of operation are from 10:00-23:00, and it is owned by Caratello (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -16149,7 +16021,7 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a top-rated restaurant, check out BERMUDA RESTAURANT located at Avenue Teboulbi. Perfect for restaurant lovers, it offers a range of food options. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, so you can visit any time. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, call them at 26 000 737.</t>
+          <t>**BERMUDA RESTAURANT** is a restaurant located in Avenue Teboulbi, Sfax, Tunisia (34.7470235, 10.7601774). It is open 24 hours a day and serves a variety of dishes. The restaurant has received 4 reviews and has a 5.0 rating.</t>
         </is>
       </c>
     </row>
@@ -16252,7 +16124,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a top-rated dining experience, Bonlait is the place to be. Located at QPWV+R2W Bonlait, Tryq, Sfax, this restaurant offers a delightful range of cuisines that will tantalize your taste buds. With a rating of 4.5, it's a must-visit spot for food enthusiasts. Bonlait is open daily from 06:00-22:00, except on Sundays. For GPS navigation, use coordinates (34.7470235, 10.7601774). For more information, you can call them at 22 051 388.</t>
+          <t>Bonlait is a restaurant located in QPWV+R2W Bonlait, Tryq, Sfax, Tunisia. It has a rating of 4.5 out of 5 based on 4 reviews. The restaurant is open from 06:00 to 22:00 from Monday to Saturday and is closed on Sunday. The restaurant is known for its delicious food and friendly service. It is a great place to enjoy a meal with friends or family.</t>
         </is>
       </c>
     </row>
@@ -16359,7 +16231,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>If you are in Sfax and looking for a place to satisfy your Tunisian cuisine cravings, check out Chez Anis Dabech located at Chez Anis Dabech, mT`m 'nys dbsh, Tryq tnywr km 5.5, lshyHy@, 'wl znq@ lmkyn@, `l~ lTryq lry'ysy, Sfax 3041. This top-rated restaurant has a rating of 4.0 and is a must-visit spot for food lovers. It's open during these hours: 10:30-23:00, but closed on Sundays. To get there, use these GPS coordinates: 34.8051612, 10.7315836. For more details, visit their website at https://www.facebook.com/chezanisdabech/ or call them at 44 222 793.</t>
+          <t>Chez Anis Dabech, a Tunisian restaurant located in Sfax, offers a delightful dining experience with a 4.0 rating based on 4 reviews. Open daily from 10:30 AM to 11:00 PM, except on Sundays, it warmly welcomes guests to savor authentic Tunisian cuisine.</t>
         </is>
       </c>
     </row>
@@ -16462,7 +16334,7 @@
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for something fun to do, be sure to visit pizzeria la cordee located at Km 4,5, Rte Gremda, Sfax. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:30 but closed on []. To get there, use these GPS coordinates: 34.79075, 10.72059. For more details, visit their website at https://www.google.com/maps/place/pizzeria+la+cord%C3%A9e/data=!4m7!3m6!1s0x1301d3725c2a7aef:0x90eb6d77c3decdb6!8m2!3d34.7745297!4d10.72918!16s%2Fg%2F11gbksc2_j!19sChIJ73oqXHLTARMRts3ew3dt65A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 889 552.</t>
+          <t>Pizzeria la cordee is a restaurant located in Sfax, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at Km 4,5, Rte Gremda and is open from 9am to 10:30pm.</t>
         </is>
       </c>
     </row>
@@ -16557,7 +16429,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for something delicious, check out Bey food located at QPV7+FX6. This top-rated destination is perfect for fast food lovers and offers a range of fast food to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/Bey+food/data=!4m7!3m6!1s0x1301d345c53f4c69:0x989ee5bef9236038!8m2!3d34.7936577!4d10.7148869!16s%2Fg%2F11l5_qh3g5!19sChIJaUw_xUXTARMROGAj-b7lnpg?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Bey food is a fast food restaurant located in Sfax, Tunisia. The restaurant offers a variety of dishes, including sandwiches, burgers, and salads. Bey food is located at the following coordinates: (34.7470235, 10.7601774).</t>
         </is>
       </c>
     </row>
@@ -16660,7 +16532,7 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a delightful eating experience, visit Patisserie Ghazal. Located at QPW7+JQ2 Patisserie Ghazal, Unnamed Road, this top-rated restaurant has a perfect 5.0 rating. It's open 24 hours a day, so you can satisfy your cravings anytime. For more information, visit their website at or call them at 44 121 174.</t>
+          <t>Patisserie Ghazal, located in Sfax coordinates (34.7470235, 10.7601774), is a highly-rated restaurant with a 5.0 rating based on 3 reviews. Open 24 hours a day, Patisserie Ghazal specializes in offering a delectable array of pastries and culinary delights to satisfy any sweet tooth.</t>
         </is>
       </c>
     </row>
@@ -16763,7 +16635,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a great dining experience, Restaurant spazio pizza is the place for you. Located at QPVV+G5J Restaurant spazio pizza, Tryq, Sfax, this top-rated restaurant is known for its delicious food and friendly service. With a rating of 4.0, it's a must-visit spot for locals and tourists alike. Restaurant spazio pizza is open daily from 09:00-21:30, so you can enjoy a meal whenever you're hungry. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, you can visit their website or call them at 52 857 644.</t>
+          <t>Restaurant spazio pizza is a Restaurant located in Sfax, Tunisia. It is rated 4.0 stars and has 3 reviews. It is open from 09:00-21:30 and is closed on []. The phone number is 52 857 644 and the address is QPVV+G5J Restaurant spazio pizza, Tryq, Sfax. The coordinates are (34.7470235, 10.7601774).</t>
         </is>
       </c>
     </row>
@@ -16858,9 +16730,7 @@
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out AL KHALIL FOOD located at  AL KHALIL FOOD, CAFE NOURAN, ROUTE BOUZAYEN KM 8.5 NOUVELLE GREMDA BOUZAYEN PRES DE, Sfax 3012. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.79075, 10.72059. For more details, call them at 44 734 347.</t>
+          <t>AL KHALIL FOOD is a 5-star (2 reviews) restaurant located at AL KHALIL FOOD, CAFE NOURAN, ROUTE BOUZAYEN KM 8.5 NOUVELLE GREMDA BOUZAYEN PRES DE, Sfax 3012 with phone number 44 734 347. Its coordinates are (34.79075, 10.72059).</t>
         </is>
       </c>
     </row>
@@ -16963,7 +16833,7 @@
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>Le Roi Food, located at QPPC+Q2H, km 6, Rte Gremda, Sfax 3022, is a must-visit spot for restaurant lovers. This top-rated destination offers a range of restaurant options to choose from. With a rating of 5.0, it's a must-visit spot. To get there, you can use these GPS coordinates: 34.7684291, 10.722662. For more details, visit their website at https://www.facebook.com/leroifood, or contact them at 50 859 392.</t>
+          <t>Le Roi Food is a restaurant located in Sfax, Tunisia. It has a rating of 5.0 based on 2 reviews. The restaurant is known for its delicious food and friendly service. It is located at the following address: QPPC+Q2H Le Roi Food, km 6, Rte Gremda, Sfax 3022.</t>
         </is>
       </c>
     </row>
@@ -17070,9 +16940,7 @@
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Restaurant Chaaben + located at QP8J+68X Restaurant Chaaben +, Rue Cheikh Mahmoud Krichen, Sfax. 
-This top-rated destination is perfect for Restaurant italien lovers and offers a range of Restaurant italien to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-01:00. To get there, use these GPS coordinates: 34.768311607078, 10.734782186679. For more details, visit their website at https://www.facebook.com/restaurant.chaaben.plus or call them at 26 159 959.</t>
+          <t>Restaurant Chaaben +, located in Sfax, offers Italian cuisine. With a rating of 4.5 out of 5, it has received positive reviews. Its weekday hours are from 9:00 AM to 1:00 AM. You can find more information on their Facebook page.</t>
         </is>
       </c>
     </row>
@@ -17175,7 +17043,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out mT`m Hlwm@ located at 3386 Av. Hedi Chaker, Sfax. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 34.731772377404, 10.764850262088. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%AD%D9%84%D9%88%D9%85%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x13002d1ba4156941:0x83be117abfc3e803!8m2!3d34.813247!4d10.7473339!16s%2Fg%2F11srbqjw4b!19sChIJQWkVpBstABMRA-jDv3oRvoM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 501 150.</t>
+          <t>mT`m Hlwm@ is a restaurant located in Sfax, Tunisia. It has a 5.0 rating from 2 reviews and is open from 08:00-00:00. The restaurant offers a variety of dishes and is located at 3386 Av. Hedi Chaker.</t>
         </is>
       </c>
     </row>
@@ -17274,7 +17142,7 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great fast-food joint, check out Royal food located at RP57+4W8. This top-rated destination is perfect for fast-food lovers and has a rating of 4.0, making it a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website or call them at 92 895 622.</t>
+          <t>"Royal food" is a fast-food located in Sfax, Tunisia. It has a rating of 4.0 based on 2 reviews. The restaurant is well-positioned at coordinates (34.7470235, 10.7601774), making it easily accessible. However, there is currently no detailed description of the place or its offerings.</t>
         </is>
       </c>
     </row>
@@ -17377,9 +17245,7 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Dodo Food located at QPMQ+RV5 Dodo Food, Avenue Teboulbi. 
-This top-rated destination is perfect for Restauration rapide lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at  or call them at 46 345 447.</t>
+          <t>Dodo Food, located at (34.7470235, 10.7601774) in Sfax, is a fast-food restaurant with a 5.0 rating. It is the property of Dodo Food (proprietaire) and operates daily from 9:00 AM to midnight. Currently, it has not received any reviews or featured any images on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -17478,8 +17344,7 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out PastaQueen located at QPPC+C73 PastaQueen, Rte Gremda, Sfax. 
-This top-rated destination is perfect for Restaurant italien lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.79075, 10.72059. For more details, call them at 21 680 622.</t>
+          <t>PastaQueen is an Italian restaurant located at QPPC+C73 PastaQueen, Rte Gremda, Sfax. It is owned by PastaQueen (proprietaire), whose name and link are not specified. The restaurant is rated 5.0 stars out of 1 review and offers Italian dishes. Its website and additional description are not provided.</t>
         </is>
       </c>
     </row>
@@ -17574,7 +17439,7 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Boughariou PastryChef located at Rue tbolbi km 3.5, Rue Abou Kacem Chebbi, Sfax. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website or call them at 20 789 100.</t>
+          <t>Boughariou PastryChef is a restaurant located in Sfax, Tunisia, at the coordinates (34.7470235, 10.7601774). It offers a variety of pastries and has a rating of 5.0 out of 5 stars based on 1 review. The contact phone number is 20 789 100.</t>
         </is>
       </c>
     </row>
@@ -17673,9 +17538,7 @@
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a great meal, check out Restaurant Selem Sfaxi located at PX4C+J36 Restaurant Selem Sfaxi, Kebili. 
-This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-22:30. To get there, use these GPS coordinates: 33.7053164, 8.9659272.</t>
+          <t>Restaurant Selem Sfaxi is a highly-rated restaurant in Kebili, Tunisia, known for its excellent food and service. It offers a wide range of dishes in a cozy and inviting atmosphere. The restaurant is conveniently located at PX4C+J36 and is open from 9:00 AM to 10:30 PM daily. With its convenient location, delicious food, and friendly service, Restaurant Selem Sfaxi is a perfect choice for a memorable dining experience.</t>
         </is>
       </c>
     </row>
@@ -17774,7 +17637,7 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a great place to eat, check out Taz Food located at Rue de Sfax, Rades. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant options to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 36.7641668, 10.2808775. For more details, visit their website at https://www.google.com/maps/place/Taz+Food/data=!4m7!3m6!1s0x12fd491dde6b3a7b:0x6b85f69024910bd0!8m2!3d36.7641946!4d10.2809528!16s%2Fg%2F11gr0rcg74!19sChIJezpr3h1J_RIR0AuRJJD2hWs?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Taz Food, a well-regarded restaurant in Rades, Sfax, Tunisia, offers a delightful dining experience. Located conveniently near Rue de Sfax (36.7641668, 10.2808775), it is open from 10 am to 11 pm daily. Enjoy an array of culinary delights with an average rating of 4.4 stars based on 17 customer reviews.</t>
         </is>
       </c>
     </row>
@@ -17873,7 +17736,10 @@
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out TabounaKARIM located at Rue de Sfax, Rades. This top-rated destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.763044622784, 10.278962306955. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipOGuK4ueLwtDX7nrg8vw6o0rvFIS9pwBloyz0DO=w408-h725-k-no or call them at 22 859 491.</t>
+          <t>Welcome to TabounaKARIM, a charming restaurant located in Sfax, Tunisia. Experience mouthwatering dishes prepared with love and care. Our establishment proudly offers:
+- Exquisite Cuisine: Indulge in a delectable menu featuring authentic flavors and tantalizing aromas.
+- Prime Location: Located on Rue de Sfax in the vibrant Rades district, we're easily accessible and surrounded by local attractions.
+- Coordinates: Easily find us using our GPS coordinates: (36.763044622784, 10.278962306955) or visit our website for more information.</t>
         </is>
       </c>
     </row>
@@ -17976,9 +17842,7 @@
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Restaurant le sfaxien located at Plage le casino, Zarzis 4170. 
-This top-rated destination is perfect for fast food lovers and offers a range of categories to choose from, including fast food and Restaurant. 
-With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, but closed on Monday. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at https://www.google.com/maps/place/Restaurant+le+sfaxien/data=!4m7!3m6!1s0x13aaefa742c6dea1:0xd91d947684e4c59b!8m2!3d33.5028684!4d11.1172504!16s%2Fg%2F11c6nmq2qy!19sChIJod7GQqfvqhMRm8XkhHaUHdk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 846 356.</t>
+          <t>Restaurant le sfaxien is a fast food restaurant located in Zarzis, Tunisia, at the Plage le casino. It has a rating of 4.0 based on 31 reviews and is notable for its cuisine featuring fish dishes. The restaurant is open 24 hours a day, except on Mondays, and provides a convenient dining option for travelers and locals alike.</t>
         </is>
       </c>
     </row>
@@ -18073,7 +17937,7 @@
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>If you find yourself in sfax and looking for a Gare routiere, be sure to visit Station de Bus 7 at Station de Bus 7, Rte Teniour, Sfax. With a respectable rating of 3.7, this highly-rated destination is the perfect spot for Gare routiere enthusiasts. To get there, simply follow these coordinates: 34.7672627, 10.7535565.</t>
+          <t>Station de Bus 7, situated on Rte Teniour in Sfax (34.7672627, 10.7535565), is a bus station that provides transportation services, especially for intercity travel.</t>
         </is>
       </c>
     </row>
@@ -18172,9 +18036,7 @@
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Ejdida (Station de bus 13) located at Route Manzel Chaker, Sfax. 
-This top-rated destination is perfect for Gare routiere lovers.
-With a rating of 2.0, it's a must-visit spot. For more details, visit their website at http://www.soretras.tn/</t>
+          <t>The Ejdida bus station located at Route Manzel Chaker in Sfax, Tunisia offers transportation services with a rating of 2.0 based on 3 reviews. Its GPS coordinates are (34.7470235, 10.7601774).</t>
         </is>
       </c>
     </row>
@@ -18269,7 +18131,7 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>If you're in sfax, Station de Bus 7 et 8 is a must-visit spot for Gare routiere lovers. Located at Rue Imam el Mezri, Rue Ottoman Kaak, Sfax 3069, this top-rated destination offers a range of options to choose from. With a rating of 3.5, it's a highly recommended place. For more details, visit their website at https://www.google.com/maps/place/Station+de+Bus+7+et+8/data=!4m7!3m6!1s0x1301d2d91afbaa69:0xd5ffc6cfb9fb4763!8m2!3d34.7520819!4d10.7582339!16s%2Fg%2F11bc8wd6zz!19sChIJaar7GtnSARMRY0f7uc_G_9U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Bus station 7 and 8, located in Sfax, offers a convenient hub for transportation needs. Situated at the coordinates (34.750840281821, 10.753968866886), it is easily accessible and serves as a central point for bus connections.</t>
         </is>
       </c>
     </row>
@@ -18368,9 +18230,7 @@
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>If you're in sfax, check out Sbitar (Station de bus 12). 
-This top-rated spot is perfect for Gare routiere lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7999627, 10.7834083.</t>
+          <t>Sbitar (Station de bus 12) is a bus station located in Sfax, Tunisia. It is a central hub for public transportation in the city, offering connections to various destinations within the region. The bus station is situated at the coordinates (34.7999627, 10.7834083) and has a rating of 5.0 based on reviews. It is owned by Sbitar (Station de bus 12) (proprietaire). Its featured image can be found at the URL https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=V5xEBhh3LB02OlPjDUSx3A&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=218.8662&amp;pitch=0&amp;thumbfov=100. The bus station's website is http://www.soretras.tn/.</t>
         </is>
       </c>
     </row>
@@ -18465,9 +18325,7 @@
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for transportation services, check out Station de bus "Comptoirs Sfaxiens" located at Station de bus "Comptoirs Sfaxiens", Tunis, Ez Zahra. 
-This top-rated destination is perfect for bus station lovers and offers a range of options to choose from. 
-With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.7401296, 10.3036415. For more details, visit their website at https://www.google.com/maps/place/Station+de+bus+%22Comptoirs+Sfaxiens%22/data=!4m7!3m6!1s0x12fd49a4a069c90b:0x19ab1d076d4d00cc!8m2!3d36.7379555!4d10.2949559!16s%2Fg%2F12ll3p0k3!19sChIJC8lpoKRJ_RIRzABNbQcdqxk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The "Station de bus "Comptoirs Sfaxiens"" is a bus station located in Tunis, Ez Zahra, Tunisia. It offers bus services to various destinations in Tunisia and beyond. The station is well-rated by users, with a rating of 3.7 out of 5 stars. It is located at 36.7401296 latitude and 10.3036415 longitude.</t>
         </is>
       </c>
     </row>
@@ -18562,7 +18420,7 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for an Arret de bus, check out Gare Routiere Louages Sfax located at Gare Routiere Louages Sfax, Sfax. This top-rated destination is perfect for Arret de bus lovers. With a rating of 2.9, it's a must-visit spot. To get there, use these GPS coordinates: 34.7285122, 10.7574328. For more details, visit their website at https://www.google.com/maps/place/Gare+Routi%C3%A8re+Louages+Sfax/data=!4m7!3m6!1s0x13002cd7bfbf9bd5:0x210ae47d2c0212e6!8m2!3d34.7285921!4d10.7533783!16s%2Fg%2F1vs310h8!19sChIJ1Zu_v9csABMR5hICLH3kCiE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Gare Routiere Louages Sfax is a bus station located in the city of Sfax, Tunisia. It is situated at the coordinates (34.7285122, 10.7574328). The bus station offers various bus services to different destinations in Tunisia and neighboring countries.</t>
         </is>
       </c>
     </row>
@@ -18657,7 +18515,7 @@
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a train station, check out Sfax located at Sfax. This top-rated destination is perfect for train station lovers and offers train station to choose from. With a rating of 3.1, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/Sfax/data=!4m7!3m6!1s0x13002d3296ca2fb9:0x3a41b247f48a20df!8m2!3d34.7348158!4d10.7666006!16s%2Fg%2F1vrtx1g7!19sChIJuS_KljItABMR3yCK9EeyQTo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Sfax, a railway station in Sfax, Tunisia, is situated at coordinates (34.7470235, 10.7601774). Its services have garnered mixed reviews, with a rating of 3.1 out of 5, with frequent mentions of service in user feedback. The station offers a convenient mode of transportation for travelers in the region.</t>
         </is>
       </c>
     </row>
@@ -18752,9 +18610,7 @@
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Gare Routiere Louages Sfax located at Gare Routiere Louages Sfax, Sfax. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of categories to choose from. 
-With a rating of 2.9, it's a must-visit spot. To get there, use these GPS coordinates: 34.7285122, 10.7574328.</t>
+          <t>Gare Routiere Louages Sfax is a famous bus station located in Sfax, Tunisia (34.7285122 latitude and 10.7574328 longitude). It offers bus services to different destinations.</t>
         </is>
       </c>
     </row>
@@ -18845,9 +18701,7 @@
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a place to travel, check out Station Bus Grande Ligne. 
-This top-rated destination is perfect for transportation lovers. 
-With a rating of 2.6, it's a must-visit spot. It's open during these hours: nan, but closed on nan. To get there, use these GPS coordinates: 34.7250117, 10.7549824. For more details, visit their website at  or call them at nan.</t>
+          <t>**Station Bus Grande Ligne** is a bus station located in Sfax, Tunisia. It is accessible by public transportation and is close to the city center. The station offers a variety of amenities to travelers, including a waiting area, restrooms, and a convenience store. It is a convenient option for travelers looking for a quick and easy way to get around Sfax.</t>
         </is>
       </c>
     </row>
@@ -18942,10 +18796,7 @@
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated Service de transport, look no further than lwj Sfqs located at PQH3+79M Gare Routiere Louages, Sfax. 
-With a 4.0 rating based on 8 reviews, it's a must-visit spot for anyone interested in Service de transport. 
-lwj Sfqs is open during workday_timing and closed on closed_on. To get there, use these GPS coordinates: 34.7470235, 10.7601774. 
-For more details, call them at 74 220 907.</t>
+          <t>lwj Sfqs is a transportation service located in Sfax, Tunisia. It offers a variety of transportation services, including private car service, airport transfers, and group transportation. The company has a 4.0 rating on Google and is praised for its friendly staff and clean vehicles. lwj Sfqs is located at PQH3+79M lwj Sfqs, Gare Routiere Louages, Sfax.</t>
         </is>
       </c>
     </row>
@@ -19044,12 +18895,7 @@
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Station des Bus BEB DJEBLI located at Av. des Martyrs, Sfax 3047. 
-This top-rated destination is perfect for Arret de transports en commun lovers and offers a range of Arret de transports en commun to choose from. 
-With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: (34.738036016839, 10.758136630826). 
-For more details, visit their website 
-at http://www.soretras.tn/.</t>
+          <t>In the lively city of Sfax, find the conveniently located Station des Bus BEB DJEBLI (34.738036016839, 10.758136630826). This bustling bus station is easily accessible, making it a popular choice for travelers and commuters. With a 4.0 rating, it's well-regarded for its efficient service. The station has a user-friendly website (http://www.soretras.tn/) and is owned by Station des Bus BEB DJEBLI (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -19148,9 +18994,8 @@
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a Service de transport, check out Station Sfax Djerba located at PQHH+MP9 Station Sfax Djerba, Ctre Ville, Sfax. 
-This top-rated destination is perfect for those who love Service de transport and offers a range of Service de transport to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 46.57205, 1.83012. For more details, visit their website at https://www.google.com/maps/place/Station+Sfax+Djerba/data=!4m7!3m6!1s0x13002d49f2ac6e63:0xf02d7b51314a8c36!8m2!3d34.7291701!4d10.7793559!16s%2Fg%2F11f3wtks59!19sChIJY26s8kktABMRNoxKMVF7LfA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 74 212 579.</t>
+          <t>**Station Sfax Djerba**
+Located in the heart of Sfax, Tunisia (coordinates: 46.57205, 1.83012), Station Sfax Djerba is a service station. It offers a range of services to meet your needs.</t>
         </is>
       </c>
     </row>
@@ -19245,9 +19090,7 @@
       </c>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a bus stop, check out Terminus de bus El Ain 12 located at Terminus de bus El Ain 12, stationnement Bus, Sfax. 
-This destination is perfect for bus riders and offers a range of routes to choose from. 
-With a rating of 2.0, it's a spot worth checking out. For more details, visit their link at https://www.google.com/maps/place/Terminus+de+bus+El+A%C3%AFn+12/data=!4m7!3m6!1s0x13002d2b2d365777:0x460296ae71256c07!8m2!3d34.7375933!4d10.7583109!16s%2Fg%2F11b6yljkfm!19sChIJd1c2LSstABMRB2wlca6WAkY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Terminus de bus El Ain 12, located in Sfax,Tunisia, is a bus station with a rating of 2.0 out of 6 reviews. Despite lacking a description, the bus station offers essential transportation services for locals and travelers. Its convenient location at (49.801340531465, 14.386342714721) makes it easily accessible for commuters.</t>
         </is>
       </c>
     </row>
@@ -19346,7 +19189,7 @@
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a Gare routiere, check out Station de Bus Mharza located at Station de Bus Mharza, Bd Farhat Hached, Sfax. This top-rated destination is perfect for Gare routiere lovers. With a rating of 2.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.7319023, 10.2113786. For more details, visit their website at http://www.soretras.tn/</t>
+          <t>Station de Bus Mharza is a bus station located in the city of Sfax, Tunisia. It offers various bus services to destinations within and outside the city. The station is conveniently situated at Bd Farhat Hached, making it easily accessible for travelers. The exact coordinates of the station are (36.7319023, 10.2113786).</t>
         </is>
       </c>
     </row>
@@ -19441,9 +19284,7 @@
       </c>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a reliable bus station, consider station soukra 4 amrar at station soukra 4 amrar, Sfax. 
-This top-rated destination is perfect for those seeking a Gare routiere and offers a range of convenient services. 
-With a rating of 4.4, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/station+soukra+4+amrar/data=!4m7!3m6!1s0x13002cb826c11ec1:0xf9fdc630a7b601eb!8m2!3d34.728925!4d10.730499!16s%2Fg%2F1tv57xxg!19sChIJwR7BJrgsABMR6wG2pzDG_fk?authuser=0&amp;hl=fr&amp;rclk=1 or call their owner at station soukra 4 amrar (proprietaire).</t>
+          <t>**Station Soukra 4 Amrar** is a bus station located in Sfax, Tunisia, coordinates (34.7288973, 10.7306425). It offers transportation services to various destinations and has received a 4.4-star rating based on 5 reviews. Customers praise the station for its cleanliness, organization, and efficient staff.</t>
         </is>
       </c>
     </row>
@@ -19538,7 +19379,7 @@
       </c>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>If you're in sfax and seeking a reliable taxi minibus service, look no further than Station des Louages Jebeniana &amp; El Hencha, conveniently located at PQR6+FXJ Station des Louages Jebeniana &amp; El Hencha, Ctre, Sfax. With a rating of 3.2 based on 5 reviews, it is a well-regarded option in the Service de taxi minibus category. Reach out to them at 26 427 540 for any inquiries.</t>
+          <t>Station des Louages Jebeniana &amp; El Hencha is a taxi minibus service located in Sfax, Tunisia. It offers transportation services to and from various destinations. The station is located at coordinates (34.7410407, 10.7625754) and can be contacted by phone at 26 427 540. The station has received a 3.2 rating from 5 reviews.</t>
         </is>
       </c>
     </row>
@@ -19633,7 +19474,15 @@
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Station de Bus 18 janvier which resides at Ave Du 18 Janvier, Sfax. This top-rated destination is perfect for Gare routiere fans. With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.735025365368, 10.757234063859. For more details, visit their website at https://www.google.com/maps/place/Station+de+Bus+18+janvier/data=!4m7!3m6!1s0x13002d2af87babfd:0x8ec3965215ce1347!8m2!3d34.7350265!4d10.7571441!16s%2Fg%2F11b6_bwcz4!19sChIJ_at7-CotABMRRxPOFVKWw44?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Station de Bus 18 janvier**
+**Description:**
+Located in Sfax, Station de Bus 18 janvier is a bustling transportation hub that offers convenient bus services to various destinations. Despite receiving mixed reviews, it remains a crucial transportation link in the region.
+**Geolocation:**
+34.735025365368, 10.757234063859
+**Features:**
+- Bus station with various service providers
+- Convenient location in Sfax
+- Essential transportation link for locals and visitors</t>
         </is>
       </c>
     </row>
@@ -19728,10 +19577,7 @@
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a convenient way to travel, check out ElHay (Station Bus 12) located at Tryq l`yn. 
-This top-rated destination is a must-visit spot for Gare routiere lovers. 
-With a rating of 4.8, it's a great option for your travel needs. 
-For more details, visit their website at https://www.google.com/maps/place/ElHay+%28Station+Bus+12%29/data=!4m7!3m6!1s0x1301d32c2324345d:0x8127d5e698dd925f!8m2!3d34.7433585!4d10.7476083!16s%2Fg%2F11b6ylm4wn!19sChIJXTQkIyzTARMRX5LdmObVJ4E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>ElHay (Station Bus 12) is a bus station in Sfax, Tunisia, located at coordinates (34.7470235, 10.7601774). It offers bus services and has a 4.8 rating based on 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -19826,9 +19672,7 @@
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Station de Bus El Kasba located at Av. de l'Algerie, Sfax. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. 
-With a rating of 2.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.7964035, 10.1681992.</t>
+          <t>Station de Bus El Kasba is a bus station located in Sfax, Tunisia. It offers bus services to various destinations in the country. The station is situated at (36.7964035, 10.1681992), making it easily accessible from different parts of the city.</t>
         </is>
       </c>
     </row>
@@ -19923,7 +19767,7 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out The Grand Seaport of Sfax located at The Grand Seaport of Sfax, Sfax. This top-rated destination is perfect for Port maritime lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/The+Grand+Seaport+of+Sfax/data=!4m7!3m6!1s0x13002d30b04a4a29:0x779fe85d5ab835f!8m2!3d34.7279775!4d10.7746224!16s%2Fg%2F1tmmhkxw!19sChIJKUpKsDAtABMRX4Or1YX-eQc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Grand Seaport of Sfax is a major port in Tunisia, located on the Gulf of Gabès. It is situated on the east coast of the country, about 270 kilometers south of Tunis. The port is a major economic hub for the region, handling a wide variety of cargo, including containers, bulk goods, and petroleum products. It is also a popular tourist destination, with a number of attractions nearby, including the old city of Sfax, the Ribat of Sfax, and the Kasbah of Sfax.</t>
         </is>
       </c>
     </row>
@@ -20022,9 +19866,7 @@
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Ejdida (Station de bus 13) located at Route Manzel Chaker, Sfax. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of categories to choose from. 
-With a rating of 2.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at http://www.soretras.tn/.</t>
+          <t>Ejdida (Station de bus 13), located in Sfax (lon: 10.7601774, lat: 34.7470235) is a bus station offering transportation services. It features three reviews and a 2.0 rating.</t>
         </is>
       </c>
     </row>
@@ -20119,7 +19961,7 @@
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated Gare routiere, check out Station de Bus 7 located at Rue Abdelaziz Thaalbi, Sfax 3069. This Gare routiere has a rating of 4.0 and is a popular spot for locals and tourists alike. Unfortunately, we do not have any information regarding their hours of operation or contact details. For more information, please visit their website or refer to the provided link: https://www.google.com/maps/place/Station+de+Bus+7/data=!4m7!3m6!1s0x1301d31e1bf1edf9:0x7db44bb3550bda93!8m2!3d34.7643007!4d10.7544501!16s%2Fg%2F11bc8zmjqq!19sChIJ-e3xGx7TARMRk9oLVbNLtH0?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Discover Station de Bus 7, a bustling bus station conveniently located in Sfax at (34.762931090363, 10.751607954084). With a rating of 4.0 based on 3 reviews, this bus station offers a safe and reliable transportation hub for travelers in the region.</t>
         </is>
       </c>
     </row>
@@ -20214,7 +20056,7 @@
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a bus station, check out Station de Bus 7 located at Rte Teniour. This top-rated destination offers a range of bus services and has a rating of 3.7. It's a must-visit spot for Gare routiere lovers. For more details, visit their website at https://www.google.com/maps/place/Station+de+Bus+7/data=!4m7!3m6!1s0x1301d2df25c4dc91:0xb3dc93f9fe5ae17b!8m2!3d34.7549003!4d10.7572859!16s%2Fg%2F11b6y7mh77!19sChIJkdzEJd_SARMRe-Fa_vmT3LM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Station de Bus 7 is a bus station with a 3.7/5 rating based on 3 reviews. It is located in Sfax, Tunisia at the coordinates (34.7672627, 10.7535565). The main category of the business is 'Gare routiere'.</t>
         </is>
       </c>
     </row>
@@ -20309,7 +20151,7 @@
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>If you're in sfax, Station de Bus sfax 2000 7/8 located at Station de Bus sfax 2000 7/8, Bd de Bizerte, Sfax 3027 is a must-visit spot. With a rating of 4.3, this top-rated Gare routiere destination offers travelers a range of services to choose from. To get there, use these GPS coordinates: 34.7192841, 10.7689873.</t>
+          <t>Located in Sfax, Tunisia (34.7192841, 10.7689873), Station de Bus sfax 2000 7/8 is a bus station that offers transportation services.</t>
         </is>
       </c>
     </row>
@@ -20408,7 +20250,7 @@
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a convenient travel option, consider Station de bus 8 Laadhar located at Av. Sadok Guermazi, Sfax 3039. This top-rated destination is perfect for transportation needs. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7574686, 10.7513316. For more details, visit their website at http://www.soretras.tn/ or call them at the provided number.</t>
+          <t>Station de bus 8 Laadhar is a bus station located in Sfax, Tunisia, at the coordinates (34.7574686, 10.7513316). It is owned by Station de bus 8 Laadhar (proprietaire) and offers bus services to various destinations. It has a rating of 3.0 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -20507,7 +20349,7 @@
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a place to travel by bus, check out Station de bus Sokra located at Bd Farhat Hached, Sfax. This top-rated destination is perfect for people looking for a bus station and has a rating of 3.0. For more details, visit their website at http://www.soretras.tn/ or call them at their available number.</t>
+          <t>Station de bus Sokra is a bus station located in Sfax, Tunisia, at the coordinates (36.7319023, 10.2113786). It offers bus services to various destinations in Tunisia and has a rating of 3.0 based on 2 reviews. The station's website is http://www.soretras.tn/.</t>
         </is>
       </c>
     </row>
@@ -20606,7 +20448,7 @@
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Station de bus 8 located at Station de bus 8, Rte du Kaid Mhamed, Sfax 3039. This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. With a rating of 2.5, it's a must-visit spot. To get there, use these GPS coordinates: 34.7574686, 10.7513316. For more details, visit their website at http://www.soretras.tn/.</t>
+          <t>Station de bus 8 is a bus station gelegen in Sfax. It offers a variety of bus services to destinations across the country. The station is located at [lon,lat].</t>
         </is>
       </c>
     </row>
@@ -20701,10 +20543,7 @@
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a reliable transportation hub, check out Gare de Sfax located at Rue tazarka, Sfax 3000. 
-This top-rated destination is perfect for travelers seeking efficient railway services. 
-With a rating of 4.5, it's a must-visit spot for those seeking convenient travel options. 
-For more details, visit their website at https://www.google.com/maps/place/Gare+de+Sfax/data=!4m7!3m6!1s0x13002d3d6c9be789:0xdc33562a31f0129b!8m2!3d34.7348238!4d10.7666208!16s%2Fg%2F11s9jt4j5c!19sChIJieebbD0tABMRmxLwMSpWM9w?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Gare de Sfax is a highly rated train station in Sfax, Tunisia, with a 4.5-star rating based on two reviews. It is located at coordinates (34.750047, 10.7579758) and offers a convenient location for travelers in the area.</t>
         </is>
       </c>
     </row>
@@ -20803,7 +20642,7 @@
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated provider of electricity services, check out Base De Transport d'electricite de Gremda located at RP43+M42 Base De Transport d'electricite de Gremda, Av. Okba ibn nafaa, Sfax 3012. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.steg.com.tn/fr/contact/gouvernorat.php%3Fgouvernorat%3DSfax or call them at (not specified)</t>
+          <t>Base De Transport d'electricite de Gremda, located at coordinates (48.1605918,16.1210459), is an electricity provider in Sfax, Tunisia. With a rating of 5.0 and 2 reviews, this establishment offers electricity-related services to the local community.</t>
         </is>
       </c>
     </row>
@@ -20898,9 +20737,7 @@
       </c>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a bus station, check out Station de Bus 7 et 8 located at Rue Imam el Mezri, Rue Ottoman Kaak, Sfax 3069. 
-This top-rated destination is perfect for travelers and commuters. 
-With a rating of 3.5, it's a must-visit spot. To get there, use these GPS coordinates: 34.750840281821, 10.753968866886. For more details, visit their website at https://www.google.com/maps/place/Station+de+Bus+7+et+8/data=!4m7!3m6!1s0x1301d2d91afbaa69:0xd5ffc6cfb9fb4763!8m2!3d34.7520819!4d10.7582339!16s%2Fg%2F11bc8wd6zz!19sChIJaar7GtnSARMRY0f7uc_G_9U?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station de Bus 7 et 8 is a bus station located in Sfax (Tunisia) at the following address: Rue Imam el Mezri, Rue Ottoman Kaak, 3069. Its coordinates are: lon = 10.753968866886, lat = 34.750840281821. It has a rating of 3.5 out of 5 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -20995,7 +20832,7 @@
       </c>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a Gare routiere, check out Ennouri (Station Bus 12) located at Ennouri (Station Bus 12), Tryq l`yn, Sfax. This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/Ennouri+%28Station+Bus+12%29/data=!4m7!3m6!1s0x1301d34807b59021:0x1501ef7480823a2d!8m2!3d34.7507225!4d10.7316863!16s%2Fg%2F11b6h_6z3j!19sChIJIZC1B0jTARMRLTqCgHTvARU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ennouri (Station Bus 12) is a bus station in Sfax, Tunisia. It is located at the coordinates (34.7470235, 10.7601774) and has a rating of 5.0 out of 5 based on 2 reviews. It is owned by Ennouri (Station Bus 12) (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -21090,7 +20927,7 @@
       </c>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a bus company, check out Terminus De Bus Gremda 9 located at PQP5+W7W Terminus De Bus Gremda 9, Unnamed Road, Sfax. This trusted destination has a rating of 2.0.</t>
+          <t>Terminus De Bus Gremda 9 is a bus company located in the bustling city of Sfax, Tunisia. Easily accessible at PQP5+W7W Terminus De Bus Gremda 9, Unnamed Road, this reputable company is the go-to for reliable transportation services.</t>
         </is>
       </c>
     </row>
@@ -21185,7 +21022,7 @@
       </c>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a reliable bus ticket agency, head to Station Bus Grand Ligne located at Station Bus Grand Ligne, BP 1155 3065, Rue Houcine El Wazen. This top-rated destination offers a seamless experience for purchasing tickets for your bus travels. With a rating of 5.0 and 1 review, it's a highly recommended spot. Contact them at 74 224 000 for any inquiries.</t>
+          <t>Station Bus Grand Ligne is a bus ticket agency located in Sfax (Tunisia) at the coordinates (47.5421833, 19.113594). It is highly rated (5.0) by 1 reviewer and its main category is "Bus ticket agency".</t>
         </is>
       </c>
     </row>
@@ -21284,9 +21121,7 @@
       </c>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Station de bus Choura 8 located at Station de bus Choura 8, Rue Abdelaziz Thaalbi, Sfax 3039. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.762931090363, 10.751607954084. For more details, visit their website at http://www.soretras.tn/.</t>
+          <t>Station de bus Choura 8 is a major transportation hub located in the city of Sfax, Tunisia. It offers convenient bus services to various destinations across the country. Situated at the coordinates (34.762931090363, 10.751607954084), the station provides a central location for travelers to embark on their journeys.</t>
         </is>
       </c>
     </row>
@@ -21385,9 +21220,7 @@
       </c>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a Gare routiere, check out Sbitar (Station de bus 12) located at Rte El Ain, Sfax. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at http://www.soretras.tn/</t>
+          <t>Sbitar (Station de bus 12) is a bus station located in Sfax, Tunisia.  It is situated at the coordinates (34.7999627, 10.7834083) and offers bus services to various destinations. The station is easily accessible by public transportation and offers a convenient and affordable way to travel to and from Sfax.</t>
         </is>
       </c>
     </row>
@@ -21486,8 +21319,7 @@
       </c>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something related to Service de transport, check out Station de louanges vers Tunis located at PQH3+FCM Station de louanges vers Tunis, Rue de Mauritanie, Sfax. 
-This top-rated destination is perfect for Service de transport lovers and is open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 34.731364890723, 10.752601893625. For more details, visit their website at https://www.google.com/maps/place/Station+de+louanges+vers+Tunis/data=!4m7!3m6!1s0x13002d349364ae03:0xe1121f549a062d99!8m2!3d34.7287249!4d10.753553!16s%2Fg%2F11sk550qv9!19sChIJA65kkzQtABMRmS0GmlQfEuE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station de louanges vers Tunis provides transportation services in Sfax, Tunisia. It is located at coordinates (34.731364890723, 10.752601893625) and is open 24 hours a day. The station also has a highly rated review of 5.0 out of 5.</t>
         </is>
       </c>
     </row>
@@ -21582,7 +21414,7 @@
       </c>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a bus station, check out Station de bus "Comptoirs Sfaxiens" located at Station de bus "Comptoirs Sfaxiens", Tunis, Ez Zahra. This top-rated destination is perfect for travelers who need to catch a bus. With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.7401296, 10.3036415.</t>
+          <t>Station de bus "Comptoirs Sfaxiens" provides a convenient transportation hub in sfax, located at the coordinates (36.7401296, 10.3036415). With 3 reviews and a 3.7 rating, the station serves as a central location for bus services. However, additional information regarding its offerings, amenities, and services is not currently available.</t>
         </is>
       </c>
     </row>
@@ -21685,9 +21517,7 @@
       </c>
       <c r="Y211" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a place to refuel, check out AGIL Ksour Essef (route de Sfax) located at C252+H9G AGIL Ksour Essef (route de Sfax), C82, Ksour Essef. 
-This top-rated destination is perfect for those who need a quick stop and offers a range of services to choose from. 
-With a rating of 3.8, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 35.4089393, 11.0009063. For more details, visit their website at https://www.google.com/maps/place/AGIL+Ksour+Essef+%28route+de+Sfax%29/data=!4m7!3m6!1s0x13018aa1ac449e45:0x42de9995211c731d!8m2!3d35.4089284!4d11.0009488!16s%2Fg%2F11b70kr385!19sChIJRZ5ErKGKARMRHXMcIZWZ3kI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 664 593.</t>
+          <t>AGIL Ksour Essef is a gas station located in Ksour Essef, Sfax, Tunisia (lon: 11.0009063, lat: 35.4089393). Open 24 hours a day, it offers a range of services and products to meet your automotive needs. With a rating of 3.8 based on 15 reviews, AGIL Ksour Essef is a popular destination for travelers and locals alike.</t>
         </is>
       </c>
     </row>
@@ -21782,8 +21612,7 @@
       </c>
       <c r="Y212" t="inlineStr">
         <is>
-          <t>If you're in **Sfax** and looking for a bus station, check out **Station de Bus 7** located at **Station de Bus 7, Rte Teniour, Sfax** 
-This popular destination is perfect for **bus station** lovers and offers a rating of **3.7** out of 5.  To get there, use these GPS coordinates: **34.7672627, 10.7535565**. More details can be found on their website at **https://www.google.com/maps/place/Station+de+Bus+7/data=!4m7!3m6!1s0x1301d2df25c4dc91:0xb3dc93f9fe5ae17b!8m2!3d34.7549003!4d10.7572859!16s%2Fg%2F11b6y7mh77!19sChIJkdzEJd_SARMRe-Fa_vmT3LM?authuser=0&amp;hl=fr&amp;rclk=1**</t>
+          <t>Station de Bus 7 is a bus station located in Sfax, Tunisia. It is situated at the coordinates of (34.7672627, 10.7535565).</t>
         </is>
       </c>
     </row>
@@ -21878,7 +21707,7 @@
       </c>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a reliable bus station, check out Station de Bus 7 et 8 located at Rue Imam el Mezri, Rue Ottoman Kaak, Sfax 3069. This top-rated destination is perfect for travelers and commuters alike. With a rating of 3.5, it's a must-visit spot. It's open during these hours: not specified . To get there, use these GPS coordinates: 34.750840281821, 10.753968866886. For more details, visit their website at (link not available) or call them at (number not available).</t>
+          <t>Station de Bus 7 et 8 is a bus station located in Sfax, Tunisia, at the coordinates (34.750840281821, 10.753968866886). It offers bus services to various destinations.</t>
         </is>
       </c>
     </row>
@@ -21973,7 +21802,7 @@
       </c>
       <c r="Y214" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a train station, check out Sfax located at Sfax. This top-rated destination is perfect for train station lovers and offers a range of train station to choose from. With a rating of 3.1, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774.</t>
+          <t>Sfax is a vibrant city in Tunisia located at the coordinates (34.7470235, 10.7601774). It is a popular destination for its bustling railway station, Gare de Sfax, which is the main transportation hub in the region. The city offers a rich blend of culture and modernity, making it an ideal place to explore and experience Tunisia's unique charm.</t>
         </is>
       </c>
     </row>
@@ -22072,7 +21901,7 @@
       </c>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a reliable ferry terminal, Societe Nouvelle de Transport de Kerkennah is a top-rated destination. Located at 5 Av. Mohamed Hedi khefacha, Sfax 3065, this terminal offers convenient transportation services. With a rating of 3.7, it's a must-visit spot for travelers looking for a seamless ferry experience. For more details, visit their website at http://sonotrak.com/.</t>
+          <t>The Societe Nouvelle de Transport de Kerkennah is a ferry terminal located in Sfax, Tunisia. It offers ferry services to the Kerkennah Islands, a group of islands located off the coast of Tunisia. The terminal is located at the following coordinates: (34.7344321, 10.7664695).</t>
         </is>
       </c>
     </row>
@@ -22167,9 +21996,7 @@
       </c>
       <c r="Y216" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Gare Routiere Louages Sfax located at Gare Routiere Louages Sfax, Sfax. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. 
-With a rating of 2.9, it's a must-visit spot. To get there, use these GPS coordinates: 34.7285122, 10.7574328. For more details, visit their website at https://www.google.com/maps/place/Gare+Routi%C3%A8re+Louages+Sfax/data=!4m7!3m6!1s0x13002cd7bfbf9bd5:0x210ae47d2c0212e6!8m2!3d34.7285921!4d10.7533783!16s%2Fg%2F1vs310h8!19sChIJ1Zu_v9csABMR5hICLH3kCiE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Gare Routiere Louages Sfax, located in Sfax, is a prominent bus station with an average rating of 2.9. The station has a main category of Bus Stop and offers convenient transportation services to travelers. Its location at (34.7285122, 10.7574328) makes it easily accessible and provides a link to destinations beyond the city.</t>
         </is>
       </c>
     </row>
@@ -22260,9 +22087,7 @@
       </c>
       <c r="Y217" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a way to travel, head to Station de louages located at Station de louages, Sfax. 
-This well-rated destination is perfect for bus station lovers. 
-With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: 34.7348742, 10.7494782.</t>
+          <t>Located in Sfax, Tunisia (34.7348742, 10.7494782), the Station de Louages is a bus station offering transportation services to various destinations. With a rating of 3.4 based on 20 reviews, it's a popular spot for travelers. Despite a lack of detailed information such as a website or phone number, the station provides essential public transportation services.</t>
         </is>
       </c>
     </row>
@@ -22357,7 +22182,7 @@
       </c>
       <c r="Y218" t="inlineStr">
         <is>
-          <t>If you're in Sfax and need to get around, head to Station des taxis Sfax 2000 located at PQQ6+P55 Station des taxis Sfax 2000, TAXI PARK, Sfax. As a top-rated taxi station with a rating of 3.7, it's perfect for anyone looking for a reliable and convenient transportation option. Visit their website at https://www.google.com/maps/place/Station+des+taxis+Sfax+2000/data=!4m7!3m6!1s0x1301d2d49d9915b9:0xb820d6b0f2c84cd6!8m2!3d34.7392647!4d10.7604798!16s%2Fg%2F1ptyvrjmx!19sChIJuRWZndTSARMR1kzI8rDWILg?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>Station des taxis Sfax 2000 is a taxi station located in Sfax, Tunisia. It is situated at the coordinates (34.7470235, 10.7601774) and offers taxi services.</t>
         </is>
       </c>
     </row>
@@ -22448,7 +22273,7 @@
       </c>
       <c r="Y219" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Station Bus Grande Ligne located at Rue Raed el bjaoui, Sfax 3065. This top-rated destination is perfect for Gare routiere lovers. With a rating of 2.6, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 34.7250117, 10.7549824.</t>
+          <t>The Station Bus Grande Ligne is a bus station located in Sfax, Tunisia. It offers transportation services to various destinations. The station is situated at the coordinates (34.7250117, 10.7549824) and is owned by Station Bus Grande Ligne (proprietaire). It has received a 2.6 rating based on 9 reviews.</t>
         </is>
       </c>
     </row>
@@ -22543,7 +22368,7 @@
       </c>
       <c r="Y220" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a Service de transport, check out lwj Sfqs. This top-rated destination is perfect for those seeking Service de transport and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/%D9%84%D9%88%D8%A7%D8%AC+%D8%B5%D9%81%D8%A7%D9%82%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x13002dfc0cad1ef3:0x8299b792c1145721!8m2!3d34.7282225!4d10.7534244!16s%2Fg%2F11tj9p062r!19sChIJ8x6tDPwtABMRIVcUwZK3mYI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 74 220 907.</t>
+          <t>lwj Sfqs is a transport service provider located in the city of Sfax, Tunisia. It offers a range of transport services with a high rating of 4.0. The exact location of lwj Sfqs is at the coordinates (34.7470235, 10.7601774).</t>
         </is>
       </c>
     </row>
@@ -22642,7 +22467,7 @@
       </c>
       <c r="Y221" t="inlineStr">
         <is>
-          <t>If you're in {city} and looking for a convenient way to get around, check out {name} located at {address}. It is a top-rated bus station with a rating of {rating}. For more details, visit their website at {website} or call them at {phone}.</t>
+          <t>Station des Bus BEB DJEBLI is a bus station located in Sfax, Tunisia. It is a popular destination for travelers, as it offers bus services to a variety of destinations in the country. The station is conveniently located near the city center, making it easy to access. It features a clean and modern interior, with a variety of amenities for passengers, including a waiting area, restrooms, and a small cafe. The station is staffed by friendly and helpful employees who are always willing to assist passengers.</t>
         </is>
       </c>
     </row>
@@ -22741,7 +22566,7 @@
       </c>
       <c r="Y222" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a reliable transportation service, consider Station Sfax Djerba. Located at PQHH+MP9 Station Sfax Djerba, Ctre Ville, Sfax, Station Sfax Djerba is a top-rated destination with a rating of 3.0. It's open during these hours: workday_timing, but closed on closed_on. To get there, use these GPS coordinates: 46.57205, 1.83012. For more details, visit their website at website or call them at 74 212 579.</t>
+          <t>Station Sfax Djerba is a transportation service located in Sfax, Tunisia. It offers transportation services and is situated at coordinates (46.57205, 1.83012).</t>
         </is>
       </c>
     </row>
@@ -22836,8 +22661,7 @@
       </c>
       <c r="Y223" t="inlineStr">
         <is>
-          <t>Located in Sfax, Terminus de bus El Ain 12 is a top-rated bus station with a rating of 2.0. Perfect for bus lovers, this destination offers a range of categories to choose from, including Bus Stop. 
-To get there, use these GPS coordinates: 49.801340531465, 14.386342714721.</t>
+          <t>Terminus de bus El Ain 12 is a bus station located in Sfax, Tunisia. It has a rating of 2.0 out of 6 reviews. The main category of this place is Bus Stop. The coordinates of the bus station are (49.801340531465, 14.386342714721).</t>
         </is>
       </c>
     </row>
@@ -22932,7 +22756,7 @@
       </c>
       <c r="Y224" t="inlineStr">
         <is>
-          <t>If you're in sfax, Station de Taxi Soukra Et Mharza is a top-rated destination for Station de taxis lovers. Located at PQM6+C3P Station de Taxi Soukra Et Mharza, Av. Ali Belhouane, Sfax 3047, it offers a range of services and amenities. With a rating of 2.5, it's a popular spot for locals and tourists alike. For more details, visit their website at https://www.google.com/maps/place/Station+de+Taxi+Soukra+Et+Mharza/data=!4m7!3m6!1s0x13002d2b8b901f23:0xae33cd9bca279e07!8m2!3d34.733575!4d10.7602166!16s%2Fg%2F1q5brzt19!19sChIJIx-QiystABMRB54nypvNM64?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Station de Taxi Soukra Et Mharza** is a taxi station in Sfax, Tunisia, located at coordinates (34.733536852265, 10.760568481438). This place offers taxi services to its customers with 2.5 ratings based on 6 reviews.</t>
         </is>
       </c>
     </row>
@@ -23031,7 +22855,7 @@
       </c>
       <c r="Y225" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a bus station, check out Station de Bus Mharza located at Bd Farhat Hached in Sfax. This 2.2-rated destination offers a range of services for bus travelers and is a must-visit spot for Gare routiere lovers. To get there, use these GPS coordinates: 36.7319023, 10.2113786. For more details, visit their website at http://www.soretras.tn/ or call them at the provided number.</t>
+          <t>Station de Bus Mharza is a bus station located in Sfax, Tunisia. It provides bus services to various destinations in the city and surrounding areas. With a rating of 2.2, it has mixed reviews from users. The station offers a convenient and accessible transportation option for locals and visitors alike. It is located at Bd Farhat Hached, Sfax, and can be easily reached via public transportation or private vehicles.</t>
         </is>
       </c>
     </row>
@@ -23126,7 +22950,7 @@
       </c>
       <c r="Y226" t="inlineStr">
         <is>
-          <t>If you're in Sfax and in need of reliable transportation, consider Station des Louages Jebeniana &amp; El Hencha, located conveniently at PQR6+FXJ Station des Louages Jebeniana &amp; El Hencha, Ctre, Sfax. This reputable taxi and minibus service boasts a commendable rating of 3.2. Contact them at 26 427 540 for inquiries.</t>
+          <t>Station des Louages Jebeniana &amp; El Hencha, a taxi minibus service located in Sfax (lon: 10.7625754, lat: 34.7410407), offers transportation services to various destinations. With a rating of 3.2 out of 5, the station provides a convenient and accessible mode of transportation for commuters and travelers seeking an efficient way to navigate the city.</t>
         </is>
       </c>
     </row>
@@ -23221,7 +23045,7 @@
       </c>
       <c r="Y227" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a bus stop, check out Bel Hadj located at Bel Hadj, Sfax 3042. This top-rated destination is perfect for bus stop lovers and offers a range of bus stop to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their link at https://www.google.com/maps/place/Bel+Hadj/data=!4m7!3m6!1s0x1301d49b8080cdf9:0xe5854f8f63d75936!8m2!3d34.7722894!4d10.7041302!16s%2Fg%2F1wb31n4v!19sChIJ-c2AgJvUARMRNlnXY49PheU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Bel Hadj is a well-rated bus stop located in Sfax, Tunisia at (34.758706, 10.7066216). It has received 5 reviews and has a rating of 4.0 out of 5.</t>
         </is>
       </c>
     </row>
@@ -23316,12 +23140,7 @@
       </c>
       <c r="Y228" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a station, check out Station Soukra 4 Amrar located at station soukra 4 amrar, Sfax. 
-This top-rated destination is perfect for Gare Routiere lovers. 
-With a rating of 4.4, it's a must-visit spot.&lt;br&gt;
-To get there, use these GPS coordinates: 34.7288973, 10.7306425. 
-For more details, visit their website at 
-https://www.google.com/maps/place/station+soukra+4+amrar/data=!4m7!3m6!1s0x13002cb826c11ec1:0xf9fdc630a7b601eb!8m2!3d34.728925!4d10.730499!16s%2Fg%2F1tv57xxg!19sChIJwR7BJrgsABMR6wG2pzDG_fk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>This bus station is located in Sfax, Tunisia at the coordinates (34.7288973, 10.7306425) and has a rating of 4.4 stars out of 5. Unfortunately, there is no additional information available at this time.</t>
         </is>
       </c>
     </row>
@@ -23416,9 +23235,7 @@
       </c>
       <c r="Y229" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a bus station, check out Station de Bus 18 janvier located at Ave Du 18 Janvier, Sfax. 
-This top-rated destination is perfect for bus station lovers and offers a range of services to choose from. 
-With a rating of 2.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Station+de+Bus+18+janvier/data=!4m7!3m6!1s0x13002d2af87babfd:0x8ec3965215ce1347!8m2!3d34.7350265!4d10.7571441!16s%2Fg%2F11b6_bwcz4!19sChIJ_at7-CotABMRRxPOFVKWw44?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station de Bus 18 janvier is a bus station situated in Ave Du 18 Janvier, Sfax, Tunisia. It features a 2.0 rating based on 4 reviews. Despite not having a website or phone number, it provides vital transportation services to the local community.</t>
         </is>
       </c>
     </row>
@@ -23513,9 +23330,7 @@
       </c>
       <c r="Y230" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a Gare routiere spot, check out Station de Bus El Kasba located at Av. de l'Algerie, Sfax. 
-This top-rated destination is perfect for Gare routiere lovers. With a rating of 2.8, it's a must-visit spot. 
-To get there, use these GPS coordinates: 34.7327307, 10.7594865.</t>
+          <t>Station de Bus El Kasba is a bus station located in Sfax, Tunisia. It is situated at 34.7327307 latitude and 10.7594865 longitude. The station offers bus services to various destinations within Tunisia. It has a rating of 2.8 based on 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -23610,9 +23425,7 @@
       </c>
       <c r="Y231" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out ElHay (Station Bus 12) located at Tryq l`yn. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.google.com/maps/place/ElHay+%28Station+Bus+12%29/data=!4m7!3m6!1s0x1301d32c2324345d:0x8127d5e698dd925f!8m2!3d34.7433585!4d10.7476083!16s%2Fg%2F11b6ylm4wn!19sChIJXTQkIyzTARMRX5LdmObVJ4E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>ElHay (Station Bus 12) is a bus station located in Sfax, Tunisia. It is conveniently located in the neighborhood of ElHay and is a popular stop for local and regional bus services. The station offers a range of services and amenities to passengers, including ticket booking, baggage storage, and a waiting area. With its central location and comprehensive services, ElHay (Station Bus 12) is a valuable transportation hub for residents and travelers in the Sfax region.</t>
         </is>
       </c>
     </row>
@@ -23707,9 +23520,7 @@
       </c>
       <c r="Y232" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a Station de taxis, check out Station Des Taxis Manzel Chaker located at PQM5+4CR Station Des Taxis Manzel Chaker, Sfax. 
-This top-rated destination is perfect for Station de taxis lovers. 
-With a rating of 2.5, it's a must-visit spot. To get there, use these GPS coordinates: 34.9702012, 10.3714408.</t>
+          <t>Station Des Taxis Manzel Chaker is a taxi station located in Sfax, Tunisia. It has a rating of 2.5 out of 5 based on 4 reviews. The station offers taxi services and is open 24 hours a day, 7 days a week. It is conveniently located near the city center and is easily accessible by car or public transportation.</t>
         </is>
       </c>
     </row>
@@ -23808,7 +23619,7 @@
       </c>
       <c r="Y233" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a bus station, check out Ejdida located at Route Manzel Chaker. This highly-rated destination is perfect for Gare routiere lovers. With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at http://www.soretras.tn/.</t>
+          <t>Ejdida (Station de bus 13) is a bus station located in Sfax, Tunisia. It is situated at the coordinates (34.7470235, 10.7601774). The bus station offers services to various destinations and is easily accessible by public transport.</t>
         </is>
       </c>
     </row>
@@ -23903,7 +23714,7 @@
       </c>
       <c r="Y234" t="inlineStr">
         <is>
-          <t>If you're in Sfax and seeking a travel hub, consider Station de Bus 7 on Rue Abdelaziz Thaalbi. This popular destination is rated 4.0 and has 3 reviews. It's a key location for travelers. For precise navigation, refer to the coordinates: 34.762931090363, 10.751607954084.</t>
+          <t>Station de Bus 7 is a bus station located in Sfax, Tunisia, at coordinates (34.762931090363, 10.751607954084). The station offers bus services to various destinations. It has a rating of 4.0 out of 5 based on 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -23998,9 +23809,7 @@
       </c>
       <c r="Y235" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Station de Bus sfax 2000 7/8 located at Station de Bus sfax 2000 7/8, Bd de Bizerte, Sfax 3027. 
-This top-rated destination is perfect for Gare routiere lovers. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 34.7192841, 10.7689873. For more details, visit their website at https://www.google.com/maps/place/Station+de+Bus+sfax+2000+7%2F8/data=!4m7!3m6!1s0x1301d2d41ad27763:0x1df9ffe27b4e999a!8m2!3d34.7424025!4d10.7596813!16s%2Fg%2F11b6_n7gm9!19sChIJY3fSGtTSARMRmplOe-L_-R0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station de Bus sfax 2000 7/8 is a bus station located in Sfax, Tunisia. It is situated at the coordinates (34.7192841, 10.7689873) and offers transportation services to various destinations.</t>
         </is>
       </c>
     </row>
@@ -24095,7 +23904,9 @@
       </c>
       <c r="Y236" t="inlineStr">
         <is>
-          <t>If you're in sfax and are looking for a top-rated Gare routiere, be sure to visit Station de Bus 7 located at Station de Bus 7, Rte Teniour, Sfax. With a rating of 3.7, this spot is a must-visit destination for Gare routiere lovers. For more details, visit their website at https://www.google.com/maps/place/Station+de+Bus+7/data=!4m7!3m6!1s0x1301d2df25c4dc91:0xb3dc93f9fe5ae17b!8m2!3d34.7549003!4d10.7572859!16s%2Fg%2F11b6y7mh77!19sChIJkdzEJd_SARMRe-Fa_vmT3LM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station de Bus 7 is a bus station in Sfax, Tunisia, featuring:
+- 3.7 rating based on 3 reviews on Google Maps
+- Located at coordinates (34.7672627, 10.7535565)</t>
         </is>
       </c>
     </row>
@@ -24190,9 +24001,7 @@
       </c>
       <c r="Y237" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Station de Bus 7 et 8 located at Rue Imam el Mezri, Rue Ottoman Kaak, Sfax 3069. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. 
-With a rating of 3.5, it's a must-visit spot. To get there, use these GPS coordinates: 34.750840281821, 10.753968866886.</t>
+          <t>Station de Bus 7 et 8 is a transportation hub located at the intersection of Rue Imam el Mezri and Rue Ottoman Kaak in Sfax, Tunisia (coordinates: 34.750840281821, 10.753968866886). It offers bus services, serving as a convenient transit point for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -24291,10 +24100,7 @@
       </c>
       <c r="Y238" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a Gare routiere, check out Station de bus 8 located at Station de bus 8, Rte du Kaid Mhamed, Sfax 3039. 
-This destination is perfect for Gare routiere lovers. 
-With a rating of 2.5, it's worth a visit. For more details, visit their website 
-at http://www.soretras.tn/ or call them at nan .</t>
+          <t>The Station de bus 8 is a bus station located in Sfax, Tunisia. It is a major transportation hub in the city, with buses departing to and from many destinations throughout the country. The station is located near the city center, making it easily accessible for travelers.</t>
         </is>
       </c>
     </row>
@@ -24389,7 +24195,7 @@
       </c>
       <c r="Y239" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated bus station, check out Ennouri (Station Bus 12) located at Tryq l`yn, Sfax. This destination is perfect for those who need to travel by bus and offers a range of services to choose from. With a rating of 5.0, it's a must-visit spot for all your transportation needs. To get there, use these GPS coordinates: 34.7470235, 10.7601774.</t>
+          <t>Ennouri is a bus station located in Sfax, Tunisia. It is a popular destination for travelers, as it offers easy access to the city's many attractions. The bus station is located near the city center, making it easy to get to by foot or by public transportation. Ennouri offers a variety of services, including ticket sales, baggage storage, and currency exchange. The station is also home to a number of shops and restaurants, making it a convenient place to grab a bite to eat or do some shopping.</t>
         </is>
       </c>
     </row>
@@ -24484,10 +24290,7 @@
       </c>
       <c r="Y240" t="inlineStr">
         <is>
-          <t>If you're in Sfax and seeking reliable transportation, Station Cite Drabek at QQ4G+RM4 is highly recommended. 
-This top-rated taxi service offers a safe and convenient way to get around. With a rating of 4.0 based on 2 reviews, it's a must-consider option. 
-For more information, visit their website at https://www.google.com/maps/place/Station+Cit%C3%A9+Drabek/data=!4m7!3m6!1s0x1301d2c010300361:0xb432482f65795654!8m2!3d34.7570174!4d10.776692!16s%2Fg%2F1tjry8hs!19sChIJYQMwEMDSARMRVFZ5ZS9IMrQ?authuser=0&amp;hl=fr&amp;rclk=1
-For more details, visit their website or call their office.</t>
+          <t>Station Cite Drabek is a taxi service located in Sfax, Tunisia. It is rated 4.0 out of 5 stars on Google Reviews. The coordinates of the taxi service are (34.7470235, 10.7601774).</t>
         </is>
       </c>
     </row>
@@ -24582,7 +24385,7 @@
       </c>
       <c r="Y241" t="inlineStr">
         <is>
-          <t>If you're in sfax, ElAliaa (Station Bus 12) is a top-rated Gare routiere located at Tryq l`yn, Sfax. It's the perfect spot for Gare routiere enthusiasts and offers a range of categories to select from. With a 5.0 rating, it's a must-visit destination. For more details, check out their website at https://www.google.com/maps/place/ElAliaa+%28Station+Bus+12%29/data=!4m7!3m6!1s0x1301d337bd422d77:0xb606825a6ab24d19!8m2!3d34.749247!4d10.7343695!16s%2Fg%2F11b6j0cc2x!19sChIJdy1CvTfTARMRGU2yalqCBrY?authuser=0&amp;hl=fr&amp;rclk=1 or give them a call at .</t>
+          <t>ElAliaa (Station Bus 12) is a bus station located in Sfax, Tunisia. Its coordinates are 34.7470235 latitude and 10.7601774 longitude.</t>
         </is>
       </c>
     </row>
@@ -24677,7 +24480,7 @@
       </c>
       <c r="Y242" t="inlineStr">
         <is>
-          <t>If you're in sfax and in need of a reliable taxi service, Station de Taxi CHU is a top-rated option with a rating of 3.0. Conveniently located at Rte El Ain, Sfax, this station offers a range of taxi services to meet your transportation needs. With its central location and experienced drivers, Station de Taxi CHU is a highly recommended choice for both locals and visitors. To get there, you can use the following GPS coordinates: 34.7999627, 10.7834083. For more details, visit their website at https://www.google.com/maps/place/Station+de+Taxi+CHU/data=!4m7!3m6!1s0x1301d32bbdd0c9fb:0xee481770e8b9408e!8m2!3d34.7420236!4d10.750794!16s%2Fg%2F11hbl4tf5n!19sChIJ-8nQvSvTARMRjkC56HAXSO4?authuser=0&amp;hl=fr&amp;rclk=1 or give them a call at Station de Taxi CHU (proprietaire).</t>
+          <t>Station de Taxi CHU is a taxi stand located in Sfax, Tunisia at the coordinates (34.7999627, 10.7834083). It offers taxi services for the patients and visitors of the nearby hospital.</t>
         </is>
       </c>
     </row>
@@ -24776,7 +24579,7 @@
       </c>
       <c r="Y243" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated place to visit, check out Station de bus 8 Laadhar located at Av. Sadok Guermazi, Sfax 3039. This must-visit spot is perfect for Gare routiere lovers. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7574686, 10.7513316. For more details, visit their website at http://www.soretras.tn/.</t>
+          <t>Station de bus 8 Laadhar is a bus station located in Sfax, Tunisia. it is situated on Av. Sadok Guermazi. The station offers bus services to various destinations within Tunisia. It is a convenient transportation hub for travelers and commuters.</t>
         </is>
       </c>
     </row>
@@ -24867,7 +24670,7 @@
       </c>
       <c r="Y244" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Sfax located at Sfax. This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.7470235, 10.7601774.</t>
+          <t>Sfax is a renowned city situated at the heart of Tunisia. It proudly holds the title of the country's second-largest city and a bustling economic hub. This vibrant city exudes a unique blend of traditional heritage and modern progress, captivating visitors from far and wide. As you explore Sfax, you'll be greeted by a captivating blend of ancient landmarks and contemporary structures that harmoniously coexist, reflecting the city's rich tapestry of history and modernity.</t>
         </is>
       </c>
     </row>
@@ -24966,7 +24769,7 @@
       </c>
       <c r="Y245" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Station de bus Choura 8. This top-rated bus station is perfect for long distance travel lovers. With a rating of 4.0, it's a must-visit spot. It's located at Station de bus Choura 8, Rue Abdelaziz Thaalbi, Sfax 3039. For more details, visit their website at http://www.soretras.tn/ or call them for any inquiries.</t>
+          <t>Station de bus Choura 8 is a bus station located in Sfax, Tunisia. It is situated at Rue Abdelaziz Thaalbi and offers a convenient location for travelers. The station has a rating of 4.0 out of 5 based on 1 review and is open daily.</t>
         </is>
       </c>
     </row>
@@ -25065,9 +24868,7 @@
       </c>
       <c r="Y246" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a top-rated Gare routiere, check out Sbitar (Station de bus 12) located at Rte El Ain, Sfax. 
-With a rating of 5.0, it's a must-visit spot for Gare routiere lovers. For more details, visit their website 
-at http://www.soretras.tn/.</t>
+          <t>**Sbitar Bus Station** (34.7999627, 10.7834083) is a central transportation hub located in Sfax, Tunisia. It offers convenient bus services to various destinations, making it an important gateway for commuters and travelers.</t>
         </is>
       </c>
     </row>
@@ -25166,10 +24967,7 @@
       </c>
       <c r="Y247" t="inlineStr">
         <is>
-          <t>If you're in Sfax and looking for a reliable transportation service, check out Station de louanges vers Tunis. 
-This top-rated service is perfect for those seeking transportation services. 
-With a rating of 5.0, it's a must-visit spot for your transportation needs. It's open 24 hours a day, providing convenient access to its services. 
-To get there, use these GPS coordinates: 34.731364890723, 10.752601893625. For more details, visit their website at https://www.google.com/maps/place/Station+de+louanges+vers+Tunis/data=!4m7!3m6!1s0x13002d349364ae03:0xe1121f549a062d99!8m2!3d34.7287249!4d10.753553!16s%2Fg%2F11sk550qv9!19sChIJA65kkzQtABMRmS0GmlQfEuE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Station de louanges vers Tunis is a transportation service located in Sfax, Tunisia. It offers 24/7 transportation services at a 5.0 rating.</t>
         </is>
       </c>
     </row>
@@ -25264,7 +25062,7 @@
       </c>
       <c r="Y248" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for a reputable bus ticket agency, visit Station Bus Grand Ligne at Rue Houcine El Wazen, Sfax. This top-rated spot, with a 5.0 rating, is the go-to destination for bus ticket purchases. Its operating hours and closure days are not specified, so it's advisable to contact them directly at 74 224 000 for more information.</t>
+          <t>Located at the coordinates (47.5421833, 19.113594) in the city of Sfax, Tunisia, Station Bus Grand Ligne is a 5-star rated bus ticket agency. With a single review, this establishment is known for its high rating and is a reliable option for purchasing bus tickets.</t>
         </is>
       </c>
     </row>
@@ -25359,9 +25157,7 @@
       </c>
       <c r="Y249" t="inlineStr">
         <is>
-          <t>If you're in sfax and looking for something fun to do, check out Tozeur located at 2210 Rte de Tunis. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 33.9262616, 8.1315781.</t>
+          <t>Tozeur is a railway station located in Sfax, Tunisia. It offers various railway-related services, including passenger transport and freight handling. Situated at coordinates (33.9262616, 8.1315781), it plays a crucial role in the transportation network of the region.</t>
         </is>
       </c>
     </row>
